--- a/output/load_data.xlsx
+++ b/output/load_data.xlsx
@@ -27,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
-    <t>area</t>
+    <t>Forbruk</t>
   </si>
   <si>
     <t>timestep</t>
   </si>
   <si>
-    <t>Forbruk</t>
+    <t>area</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,794 +404,3170 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1</v>
+        <v>154.52499999999998</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>187.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>176.175</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>273.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1</v>
+        <v>197.825</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>137.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1</v>
+        <v>219.47500000000002</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
-        <v>299.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1</v>
+        <v>268.50549450549454</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>294.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1</v>
+        <v>292.61391941391946</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>259.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1</v>
+        <v>285.6542124542125</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>264.40000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1</v>
+        <v>247.62637362637363</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>276.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1</v>
+        <v>147.90263837109262</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>355.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1</v>
+        <v>121.06839690278173</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>252.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1</v>
+        <v>123.58287926584455</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12">
-        <v>316.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1</v>
+        <v>155.446085460281</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>240.79999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1</v>
+        <v>256.23064487156455</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>236.79999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1</v>
+        <v>299.8180707742051</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15">
-        <v>267.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1</v>
+        <v>320.9937129513202</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16">
-        <v>324.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1</v>
+        <v>319.75757140291</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17">
-        <v>234.60000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1</v>
+        <v>300.1713917304221</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18">
-        <v>211.39999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1</v>
+        <v>299.0064643686066</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19">
-        <v>222.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1</v>
+        <v>294.01753631909236</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20">
-        <v>360.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1</v>
+        <v>285.2046075818792</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21">
-        <v>295.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1</v>
+        <v>267.773840778166</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22">
-        <v>320.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1</v>
+        <v>259.2356974218529</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23">
-        <v>234.79999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1</v>
+        <v>255.53092832184342</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24">
-        <v>556.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1</v>
+        <v>256.65953347813763</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25">
-        <v>267.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>2</v>
+        <v>261.73457697380826</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>137.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>2</v>
+        <v>262.880459770115</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C27">
-        <v>204.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>2</v>
+        <v>264.9729413981534</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>299.40000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>2</v>
+        <v>268.01202185792357</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C29">
-        <v>249.40000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>2</v>
+        <v>264.0537462712756</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>207.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2</v>
+        <v>267.0143709422706</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>270.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2</v>
+        <v>278.08031233549747</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C32">
-        <v>253.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>2</v>
+        <v>297.2515704509563</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>355.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2</v>
+        <v>348.33358876117495</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C34">
-        <v>243.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2</v>
+        <v>369.43823905040944</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C35">
-        <v>338.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>2</v>
+        <v>366.15232514461724</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C36">
-        <v>271.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2</v>
+        <v>338.47584704379835</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C37">
-        <v>204.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>2</v>
+        <v>268.42776048342796</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C38">
-        <v>267.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>2</v>
+        <v>244.52444607214795</v>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C39">
-        <v>217.79999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>2</v>
+        <v>240.04834279436002</v>
       </c>
       <c r="B40">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C40">
-        <v>333.40000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>2</v>
+        <v>254.9994506500641</v>
       </c>
       <c r="B41">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C41">
-        <v>375.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2</v>
+        <v>309.70588235294116</v>
       </c>
       <c r="B42">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C42">
-        <v>242.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>2</v>
+        <v>326.8588235294118</v>
       </c>
       <c r="B43">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C43">
-        <v>229.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>2</v>
+        <v>325.3764705882353</v>
       </c>
       <c r="B44">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C44">
-        <v>199.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>2</v>
+        <v>305.25882352941176</v>
       </c>
       <c r="B45">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C45">
-        <v>301.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>2</v>
+        <v>259.59743795036024</v>
       </c>
       <c r="B46">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C46">
-        <v>249.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>2</v>
+        <v>241.28198558847072</v>
       </c>
       <c r="B47">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C47">
-        <v>375.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>2</v>
+        <v>231.6422738190552</v>
       </c>
       <c r="B48">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C48">
-        <v>338.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>2</v>
+        <v>230.67830264211366</v>
       </c>
       <c r="B49">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C49">
-        <v>153.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>3</v>
+        <v>234.07420927097377</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C50">
-        <v>185.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>3</v>
+        <v>233.09194234159492</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C51">
-        <v>311.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>3</v>
+        <v>236.30886653531056</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C52">
-        <v>203.79999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>3</v>
+        <v>243.7249818521207</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C53">
-        <v>313.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>3</v>
+        <v>252.4368124248867</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C54">
-        <v>282.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>3</v>
+        <v>259.891189793843</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C55">
-        <v>331.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>3</v>
+        <v>270.72718868447805</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C56">
-        <v>398.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>3</v>
+        <v>284.944809096792</v>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C57">
-        <v>275.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>3</v>
+        <v>321.26016658500737</v>
       </c>
       <c r="B58">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C58">
-        <v>126.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>3</v>
+        <v>336.5279764821166</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C59">
-        <v>329.59999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>3</v>
+        <v>332.23390494855465</v>
       </c>
       <c r="B60">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C60">
-        <v>329.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>3</v>
+        <v>308.37795198432144</v>
       </c>
       <c r="B61">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C61">
-        <v>277.59999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>3</v>
+        <v>259.127022020992</v>
       </c>
       <c r="B62">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C62">
-        <v>322.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>3</v>
+        <v>237.40032928586132</v>
       </c>
       <c r="B63">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C63">
-        <v>237.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>3</v>
+        <v>223.73665363243472</v>
       </c>
       <c r="B64">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C64">
-        <v>234.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>3</v>
+        <v>218.13599506071208</v>
       </c>
       <c r="B65">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C65">
-        <v>278.79999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>3</v>
+        <v>215.68728705527874</v>
       </c>
       <c r="B66">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C66">
-        <v>428.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>3</v>
+        <v>210.00356935913774</v>
       </c>
       <c r="B67">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C67">
-        <v>471.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>3</v>
+        <v>208.5581411519295</v>
       </c>
       <c r="B68">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C68">
-        <v>186.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>3</v>
+        <v>211.35100243365397</v>
       </c>
       <c r="B69">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C69">
-        <v>261.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>3</v>
+        <v>204.0971284845944</v>
       </c>
       <c r="B70">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C70">
-        <v>358.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>3</v>
+        <v>206.75896038566339</v>
       </c>
       <c r="B71">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C71">
-        <v>312.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>3</v>
+        <v>224.1309159505345</v>
       </c>
       <c r="B72">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C72">
-        <v>191.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>3</v>
+        <v>256.2129951792077</v>
       </c>
       <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>331.9938339802926</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>368.93880262765003</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>378.67248432367865</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>361.19487906837855</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>307.8431718061674</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>292.1897209985316</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>287.3732745961821</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>293.3938325991189</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>324.8242983028721</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>331.3557930809399</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>323.465747389034</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>301.1541612271541</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>219.3261333800105</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>201.7767547698232</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>226.02531069490638</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>292.07180115525995</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>504.9699088304247</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>598.0997238864289</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>602.7649075280023</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>518.9654597551446</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>375.45000000000005</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>303.15</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>230.85</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>158.54999999999998</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>112.39999999999999</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>129.2</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>146.0</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>162.8</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>176.6458398367151</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>193.16950414215395</v>
+      </c>
+      <c r="B103">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>213.06183215271946</v>
+      </c>
+      <c r="B104">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>236.3228238684116</v>
+      </c>
+      <c r="B105">
+        <v>8</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>280.88205811783536</v>
+      </c>
+      <c r="B106">
+        <v>9</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>306.051559584111</v>
+      </c>
+      <c r="B107">
+        <v>10</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>311.9847507331379</v>
+      </c>
+      <c r="B108">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>298.6816315649161</v>
+      </c>
+      <c r="B109">
+        <v>12</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>267.05245083358295</v>
+      </c>
+      <c r="B110">
+        <v>13</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>254.60361385644407</v>
+      </c>
+      <c r="B111">
+        <v>14</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>243.17558151143058</v>
+      </c>
+      <c r="B112">
+        <v>15</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>232.7683537985425</v>
+      </c>
+      <c r="B113">
+        <v>16</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>210.0221567739012</v>
+      </c>
+      <c r="B114">
+        <v>17</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>200.19243316719528</v>
+      </c>
+      <c r="B115">
+        <v>18</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>202.68513819664705</v>
+      </c>
+      <c r="B116">
+        <v>19</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>217.50027186225645</v>
+      </c>
+      <c r="B117">
+        <v>20</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>256.5013816925734</v>
+      </c>
+      <c r="B118">
+        <v>21</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>272.8588946459413</v>
+      </c>
+      <c r="B119">
+        <v>22</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>278.77875647668395</v>
+      </c>
+      <c r="B120">
+        <v>23</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>274.26096718480136</v>
+      </c>
+      <c r="B121">
         <v>24</v>
       </c>
-      <c r="C73">
-        <v>158.6</v>
+      <c r="C121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>245.29045132413276</v>
+      </c>
+      <c r="B122">
+        <v>25</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>241.18220813129426</v>
+      </c>
+      <c r="B123">
+        <v>26</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>251.14587840358067</v>
+      </c>
+      <c r="B124">
+        <v>27</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>275.1814621409921</v>
+      </c>
+      <c r="B125">
+        <v>28</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>342.591760584831</v>
+      </c>
+      <c r="B126">
+        <v>29</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>370.1115595491928</v>
+      </c>
+      <c r="B127">
+        <v>30</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>368.7598994821809</v>
+      </c>
+      <c r="B128">
+        <v>31</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>338.5367803837953</v>
+      </c>
+      <c r="B129">
+        <v>32</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>257.7305333581118</v>
+      </c>
+      <c r="B130">
+        <v>33</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>232.465935699684</v>
+      </c>
+      <c r="B131">
+        <v>34</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>230.56770117078605</v>
+      </c>
+      <c r="B132">
+        <v>35</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>252.0358297714179</v>
+      </c>
+      <c r="B133">
+        <v>36</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>321.8710859479437</v>
+      </c>
+      <c r="B134">
+        <v>37</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>347.1356923802784</v>
+      </c>
+      <c r="B135">
+        <v>38</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>350.83230321616736</v>
+      </c>
+      <c r="B136">
+        <v>39</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>332.9609184556106</v>
+      </c>
+      <c r="B137">
+        <v>40</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>296.1453606345693</v>
+      </c>
+      <c r="B138">
+        <v>41</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>279.34845969378347</v>
+      </c>
+      <c r="B139">
+        <v>42</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>262.6015495296071</v>
+      </c>
+      <c r="B140">
+        <v>43</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>245.90463014204025</v>
+      </c>
+      <c r="B141">
+        <v>44</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>212.3031746031746</v>
+      </c>
+      <c r="B142">
+        <v>45</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>196.83768707482992</v>
+      </c>
+      <c r="B143">
+        <v>46</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>196.46725623582765</v>
+      </c>
+      <c r="B144">
+        <v>47</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>211.1918820861678</v>
+      </c>
+      <c r="B145">
+        <v>48</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>257.6096608832807</v>
+      </c>
+      <c r="B146">
+        <v>49</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>274.3999605678233</v>
+      </c>
+      <c r="B147">
+        <v>50</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>276.1951498422713</v>
+      </c>
+      <c r="B148">
+        <v>51</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>262.9952287066246</v>
+      </c>
+      <c r="B149">
+        <v>52</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>216.01924528301885</v>
+      </c>
+      <c r="B150">
+        <v>53</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>204.60415094339618</v>
+      </c>
+      <c r="B151">
+        <v>54</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>212.09245283018865</v>
+      </c>
+      <c r="B152">
+        <v>55</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>238.48415094339617</v>
+      </c>
+      <c r="B153">
+        <v>56</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>298.3039099251948</v>
+      </c>
+      <c r="B154">
+        <v>57</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>328.02631294825335</v>
+      </c>
+      <c r="B155">
+        <v>58</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>348.2612015115293</v>
+      </c>
+      <c r="B156">
+        <v>59</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>359.00857561502283</v>
+      </c>
+      <c r="B157">
+        <v>60</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>381.78385339276866</v>
+      </c>
+      <c r="B158">
+        <v>61</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>392.8808320950966</v>
+      </c>
+      <c r="B159">
+        <v>62</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>380.748489351164</v>
+      </c>
+      <c r="B160">
+        <v>63</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>345.3868251609708</v>
+      </c>
+      <c r="B161">
+        <v>64</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>274.77647058823527</v>
+      </c>
+      <c r="B162">
+        <v>65</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>243.43529411764703</v>
+      </c>
+      <c r="B163">
+        <v>66</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>226.32941176470587</v>
+      </c>
+      <c r="B164">
+        <v>67</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>223.45882352941177</v>
+      </c>
+      <c r="B165">
+        <v>68</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>236.7184924733546</v>
+      </c>
+      <c r="B166">
+        <v>69</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>233.6379958246347</v>
+      </c>
+      <c r="B167">
+        <v>70</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>228.25975167564008</v>
+      </c>
+      <c r="B168">
+        <v>71</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>220.58376002637073</v>
+      </c>
+      <c r="B169">
+        <v>72</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>194.6221553420535</v>
+      </c>
+      <c r="B170">
+        <v>73</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>187.60541729366824</v>
+      </c>
+      <c r="B171">
+        <v>74</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>195.8916309758074</v>
+      </c>
+      <c r="B172">
+        <v>75</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>219.4807963884709</v>
+      </c>
+      <c r="B173">
+        <v>76</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>281.249411139644</v>
+      </c>
+      <c r="B174">
+        <v>77</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>308.54377047728684</v>
+      </c>
+      <c r="B175">
+        <v>78</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>315.2471796688214</v>
+      </c>
+      <c r="B176">
+        <v>79</v>
+      </c>
+      <c r="C176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>301.35963871424775</v>
+      </c>
+      <c r="B177">
+        <v>80</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>247.14326188943065</v>
+      </c>
+      <c r="B178">
+        <v>81</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>235.2039738754485</v>
+      </c>
+      <c r="B179">
+        <v>82</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>243.63035599300892</v>
+      </c>
+      <c r="B180">
+        <v>83</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>272.42240824211206</v>
+      </c>
+      <c r="B181">
+        <v>84</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>346.745489145757</v>
+      </c>
+      <c r="B182">
+        <v>85</v>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>379.88969551733857</v>
+      </c>
+      <c r="B183">
+        <v>86</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>391.5721031857908</v>
+      </c>
+      <c r="B184">
+        <v>87</v>
+      </c>
+      <c r="C184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>381.7927121511136</v>
+      </c>
+      <c r="B185">
+        <v>88</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>372.24960876369323</v>
+      </c>
+      <c r="B186">
+        <v>89</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>362.4640062597809</v>
+      </c>
+      <c r="B187">
+        <v>90</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>333.1071987480438</v>
+      </c>
+      <c r="B188">
+        <v>91</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>284.17918622848197</v>
+      </c>
+      <c r="B189">
+        <v>92</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>222.375</v>
+      </c>
+      <c r="B190">
+        <v>93</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>176.125</v>
+      </c>
+      <c r="B191">
+        <v>94</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>129.875</v>
+      </c>
+      <c r="B192">
+        <v>95</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>83.625</v>
+      </c>
+      <c r="B193">
+        <v>96</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>137.75</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>169.25</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>200.75</v>
+      </c>
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>232.25</v>
+      </c>
+      <c r="B197">
+        <v>4</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>291.0280290934894</v>
+      </c>
+      <c r="B198">
+        <v>5</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>325.78587901365967</v>
+      </c>
+      <c r="B199">
+        <v>6</v>
+      </c>
+      <c r="C199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>328.3789249600851</v>
+      </c>
+      <c r="B200">
+        <v>7</v>
+      </c>
+      <c r="C200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>298.8071669327656</v>
+      </c>
+      <c r="B201">
+        <v>8</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>215.362494586401</v>
+      </c>
+      <c r="B202">
+        <v>9</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>191.70792550887828</v>
+      </c>
+      <c r="B203">
+        <v>10</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>191.9727154612386</v>
+      </c>
+      <c r="B204">
+        <v>11</v>
+      </c>
+      <c r="C204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>216.15686444348196</v>
+      </c>
+      <c r="B205">
+        <v>12</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>288.50175794455714</v>
+      </c>
+      <c r="B206">
+        <v>13</v>
+      </c>
+      <c r="C206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>317.53204868154154</v>
+      </c>
+      <c r="B207">
+        <v>14</v>
+      </c>
+      <c r="C207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>327.9151453684921</v>
+      </c>
+      <c r="B208">
+        <v>15</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>319.651048005409</v>
+      </c>
+      <c r="B209">
+        <v>16</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>283.7932591958939</v>
+      </c>
+      <c r="B210">
+        <v>17</v>
+      </c>
+      <c r="C210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>276.261488451668</v>
+      </c>
+      <c r="B211">
+        <v>18</v>
+      </c>
+      <c r="C211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>278.434114627887</v>
+      </c>
+      <c r="B212">
+        <v>19</v>
+      </c>
+      <c r="C212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>290.31113772455086</v>
+      </c>
+      <c r="B213">
+        <v>20</v>
+      </c>
+      <c r="C213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>310.83959238723213</v>
+      </c>
+      <c r="B214">
+        <v>21</v>
+      </c>
+      <c r="C214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>323.05664618612315</v>
+      </c>
+      <c r="B215">
+        <v>22</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>337.5085268994455</v>
+      </c>
+      <c r="B216">
+        <v>23</v>
+      </c>
+      <c r="C216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>354.1952345271992</v>
+      </c>
+      <c r="B217">
+        <v>24</v>
+      </c>
+      <c r="C217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>397.0581299186341</v>
+      </c>
+      <c r="B218">
+        <v>25</v>
+      </c>
+      <c r="C218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>414.92255568894234</v>
+      </c>
+      <c r="B219">
+        <v>26</v>
+      </c>
+      <c r="C219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>407.53221288515414</v>
+      </c>
+      <c r="B220">
+        <v>27</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221">
+        <v>374.8871015072696</v>
+      </c>
+      <c r="B221">
+        <v>28</v>
+      </c>
+      <c r="C221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
+        <v>325.8074142044412</v>
+      </c>
+      <c r="B222">
+        <v>29</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>294.7299320976326</v>
+      </c>
+      <c r="B223">
+        <v>30</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>260.2612589465958</v>
+      </c>
+      <c r="B224">
+        <v>31</v>
+      </c>
+      <c r="C224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>222.4013947513305</v>
+      </c>
+      <c r="B225">
+        <v>32</v>
+      </c>
+      <c r="C225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
+        <v>135.0727139292529</v>
+      </c>
+      <c r="B226">
+        <v>33</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
+        <v>107.36169088507266</v>
+      </c>
+      <c r="B227">
+        <v>34</v>
+      </c>
+      <c r="C227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
+        <v>112.34448847790988</v>
+      </c>
+      <c r="B228">
+        <v>35</v>
+      </c>
+      <c r="C228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229">
+        <v>150.02110670776457</v>
+      </c>
+      <c r="B229">
+        <v>36</v>
+      </c>
+      <c r="C229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230">
+        <v>274.52217655761956</v>
+      </c>
+      <c r="B230">
+        <v>37</v>
+      </c>
+      <c r="C230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231">
+        <v>329.62709189544626</v>
+      </c>
+      <c r="B231">
+        <v>38</v>
+      </c>
+      <c r="C231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232">
+        <v>357.15245766891337</v>
+      </c>
+      <c r="B232">
+        <v>39</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233">
+        <v>357.0982738780207</v>
+      </c>
+      <c r="B233">
+        <v>40</v>
+      </c>
+      <c r="C233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234">
+        <v>336.055318160706</v>
+      </c>
+      <c r="B234">
+        <v>41</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235">
+        <v>336.0043195541105</v>
+      </c>
+      <c r="B235">
+        <v>42</v>
+      </c>
+      <c r="C235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236">
+        <v>329.3745006967022</v>
+      </c>
+      <c r="B236">
+        <v>43</v>
+      </c>
+      <c r="C236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
+        <v>316.1658615884812</v>
+      </c>
+      <c r="B237">
+        <v>44</v>
+      </c>
+      <c r="C237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238">
+        <v>284.6927578765645</v>
+      </c>
+      <c r="B238">
+        <v>45</v>
+      </c>
+      <c r="C238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239">
+        <v>272.2804315925766</v>
+      </c>
+      <c r="B239">
+        <v>46</v>
+      </c>
+      <c r="C239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240">
+        <v>271.39383685800595</v>
+      </c>
+      <c r="B240">
+        <v>47</v>
+      </c>
+      <c r="C240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241">
+        <v>282.0329736728528</v>
+      </c>
+      <c r="B241">
+        <v>48</v>
+      </c>
+      <c r="C241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242">
+        <v>321.39478630383263</v>
+      </c>
+      <c r="B242">
+        <v>49</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243">
+        <v>333.07804200375904</v>
+      </c>
+      <c r="B243">
+        <v>50</v>
+      </c>
+      <c r="C243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244">
+        <v>327.84162784996323</v>
+      </c>
+      <c r="B244">
+        <v>51</v>
+      </c>
+      <c r="C244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245">
+        <v>305.68554384244504</v>
+      </c>
+      <c r="B245">
+        <v>52</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246">
+        <v>258.4521888238854</v>
+      </c>
+      <c r="B246">
+        <v>53</v>
+      </c>
+      <c r="C246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247">
+        <v>238.25573935848294</v>
+      </c>
+      <c r="B247">
+        <v>54</v>
+      </c>
+      <c r="C247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248">
+        <v>227.70177526729876</v>
+      </c>
+      <c r="B248">
+        <v>55</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249">
+        <v>226.79029655033284</v>
+      </c>
+      <c r="B249">
+        <v>56</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250">
+        <v>229.4676663542643</v>
+      </c>
+      <c r="B250">
+        <v>57</v>
+      </c>
+      <c r="C250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251">
+        <v>228.54170571696346</v>
+      </c>
+      <c r="B251">
+        <v>58</v>
+      </c>
+      <c r="C251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252">
+        <v>233.5370196813496</v>
+      </c>
+      <c r="B252">
+        <v>59</v>
+      </c>
+      <c r="C252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253">
+        <v>244.45360824742266</v>
+      </c>
+      <c r="B253">
+        <v>60</v>
+      </c>
+      <c r="C253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254">
+        <v>250.28473530923418</v>
+      </c>
+      <c r="B254">
+        <v>61</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255">
+        <v>260.98393010107924</v>
+      </c>
+      <c r="B255">
+        <v>62</v>
+      </c>
+      <c r="C255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256">
+        <v>284.14959739592246</v>
+      </c>
+      <c r="B256">
+        <v>63</v>
+      </c>
+      <c r="C256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257">
+        <v>319.7817371937639</v>
+      </c>
+      <c r="B257">
+        <v>64</v>
+      </c>
+      <c r="C257">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258">
+        <v>383.8895853423337</v>
+      </c>
+      <c r="B258">
+        <v>65</v>
+      </c>
+      <c r="C258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259">
+        <v>422.37656702025083</v>
+      </c>
+      <c r="B259">
+        <v>66</v>
+      </c>
+      <c r="C259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260">
+        <v>447.2434908389586</v>
+      </c>
+      <c r="B260">
+        <v>67</v>
+      </c>
+      <c r="C260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261">
+        <v>458.4903567984572</v>
+      </c>
+      <c r="B261">
+        <v>68</v>
+      </c>
+      <c r="C261">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262">
+        <v>498.65497619324117</v>
+      </c>
+      <c r="B262">
+        <v>69</v>
+      </c>
+      <c r="C262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263">
+        <v>510.5942166995703</v>
+      </c>
+      <c r="B263">
+        <v>70</v>
+      </c>
+      <c r="C263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264">
+        <v>477.5696202531646</v>
+      </c>
+      <c r="B264">
+        <v>71</v>
+      </c>
+      <c r="C264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265">
+        <v>399.58118685402394</v>
+      </c>
+      <c r="B265">
+        <v>72</v>
+      </c>
+      <c r="C265">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266">
+        <v>236.62810915758823</v>
+      </c>
+      <c r="B266">
+        <v>73</v>
+      </c>
+      <c r="C266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267">
+        <v>179.24418077877257</v>
+      </c>
+      <c r="B267">
+        <v>74</v>
+      </c>
+      <c r="C267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268">
+        <v>158.1080358105922</v>
+      </c>
+      <c r="B268">
+        <v>75</v>
+      </c>
+      <c r="C268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269">
+        <v>173.21967425304717</v>
+      </c>
+      <c r="B269">
+        <v>76</v>
+      </c>
+      <c r="C269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270">
+        <v>231.33339005483077</v>
+      </c>
+      <c r="B270">
+        <v>77</v>
+      </c>
+      <c r="C270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271">
+        <v>249.8955000945358</v>
+      </c>
+      <c r="B271">
+        <v>78</v>
+      </c>
+      <c r="C271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272">
+        <v>271.08105501985256</v>
+      </c>
+      <c r="B272">
+        <v>79</v>
+      </c>
+      <c r="C272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273">
+        <v>294.89005483078085</v>
+      </c>
+      <c r="B273">
+        <v>80</v>
+      </c>
+      <c r="C273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274">
+        <v>338.6443840446632</v>
+      </c>
+      <c r="B274">
+        <v>81</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275">
+        <v>363.9434364210681</v>
+      </c>
+      <c r="B275">
+        <v>82</v>
+      </c>
+      <c r="C275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276">
+        <v>370.64952618820246</v>
+      </c>
+      <c r="B276">
+        <v>83</v>
+      </c>
+      <c r="C276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277">
+        <v>358.76265334606626</v>
+      </c>
+      <c r="B277">
+        <v>84</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278">
+        <v>340.10650399802165</v>
+      </c>
+      <c r="B278">
+        <v>85</v>
+      </c>
+      <c r="C278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279">
+        <v>328.45160333031083</v>
+      </c>
+      <c r="B279">
+        <v>86</v>
+      </c>
+      <c r="C279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280">
+        <v>306.97254966614463</v>
+      </c>
+      <c r="B280">
+        <v>87</v>
+      </c>
+      <c r="C280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281">
+        <v>275.66934300552305</v>
+      </c>
+      <c r="B281">
+        <v>88</v>
+      </c>
+      <c r="C281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282">
+        <v>223.96565008025684</v>
+      </c>
+      <c r="B282">
+        <v>89</v>
+      </c>
+      <c r="C282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283">
+        <v>195.27573774540068</v>
+      </c>
+      <c r="B283">
+        <v>90</v>
+      </c>
+      <c r="C283">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284">
+        <v>177.05504383257193</v>
+      </c>
+      <c r="B284">
+        <v>91</v>
+      </c>
+      <c r="C284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285">
+        <v>169.30356834177059</v>
+      </c>
+      <c r="B285">
+        <v>92</v>
+      </c>
+      <c r="C285">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286">
+        <v>170.9</v>
+      </c>
+      <c r="B286">
+        <v>93</v>
+      </c>
+      <c r="C286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287">
+        <v>162.70000000000002</v>
+      </c>
+      <c r="B287">
+        <v>94</v>
+      </c>
+      <c r="C287">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288">
+        <v>154.5</v>
+      </c>
+      <c r="B288">
+        <v>95</v>
+      </c>
+      <c r="C288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289">
+        <v>146.29999999999998</v>
+      </c>
+      <c r="B289">
+        <v>96</v>
+      </c>
+      <c r="C289">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/output/load_data.xlsx
+++ b/output/load_data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>Forbruk</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>area</t>
+  </si>
+  <si>
+    <t>scenario</t>
   </si>
 </sst>
 </file>
@@ -385,13 +388,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:C289"/>
+  <dimension ref="A1:D577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,10 +404,13 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>154.52499999999998</v>
+        <v>154.5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -412,10 +418,13 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>176.175</v>
+        <v>176.2</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -423,10 +432,13 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>197.825</v>
+        <v>197.8</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -434,10 +446,13 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>219.47500000000002</v>
+        <v>219.5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -445,10 +460,13 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>268.50549450549454</v>
+        <v>268.5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -456,10 +474,13 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>292.61391941391946</v>
+        <v>292.6</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -467,10 +488,13 @@
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>285.6542124542125</v>
+        <v>285.7</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -478,10 +502,13 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
-        <v>247.62637362637363</v>
+        <v>247.6</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -489,10 +516,13 @@
       <c r="C9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
-        <v>147.90263837109262</v>
+        <v>147.9</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -500,10 +530,13 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
-        <v>121.06839690278173</v>
+        <v>121.1</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -511,10 +544,13 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
-        <v>123.58287926584455</v>
+        <v>123.6</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -522,10 +558,13 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
-        <v>155.446085460281</v>
+        <v>155.4</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -533,10 +572,13 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
-        <v>256.23064487156455</v>
+        <v>256.2</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -544,10 +586,13 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
-        <v>299.8180707742051</v>
+        <v>299.8</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -555,10 +600,13 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
-        <v>320.9937129513202</v>
+        <v>321.0</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -566,10 +614,13 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
-        <v>319.75757140291</v>
+        <v>319.8</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -577,10 +628,13 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
-        <v>300.1713917304221</v>
+        <v>300.2</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -588,10 +642,13 @@
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
-        <v>299.0064643686066</v>
+        <v>299.0</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -599,10 +656,13 @@
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
-        <v>294.01753631909236</v>
+        <v>294.0</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -610,10 +670,13 @@
       <c r="C20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
-        <v>285.2046075818792</v>
+        <v>285.2</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -621,10 +684,13 @@
       <c r="C21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
-        <v>267.773840778166</v>
+        <v>267.8</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -632,10 +698,13 @@
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
-        <v>259.2356974218529</v>
+        <v>259.2</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -643,10 +712,13 @@
       <c r="C23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
-        <v>255.53092832184342</v>
+        <v>255.5</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -654,10 +726,13 @@
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
-        <v>256.65953347813763</v>
+        <v>256.7</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -665,10 +740,13 @@
       <c r="C25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
-        <v>261.73457697380826</v>
+        <v>261.7</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -676,10 +754,13 @@
       <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
-        <v>262.880459770115</v>
+        <v>262.9</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -687,10 +768,13 @@
       <c r="C27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
-        <v>264.9729413981534</v>
+        <v>265.0</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -698,10 +782,13 @@
       <c r="C28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
-        <v>268.01202185792357</v>
+        <v>268.0</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -709,10 +796,13 @@
       <c r="C29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
-        <v>264.0537462712756</v>
+        <v>264.1</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -720,10 +810,13 @@
       <c r="C30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
-        <v>267.0143709422706</v>
+        <v>267.0</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -731,10 +824,13 @@
       <c r="C31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
-        <v>278.08031233549747</v>
+        <v>278.1</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -742,10 +838,13 @@
       <c r="C32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
-        <v>297.2515704509563</v>
+        <v>297.3</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -753,10 +852,13 @@
       <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
-        <v>348.33358876117495</v>
+        <v>348.3</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -764,10 +866,13 @@
       <c r="C34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
-        <v>369.43823905040944</v>
+        <v>369.4</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -775,10 +880,13 @@
       <c r="C35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
-        <v>366.15232514461724</v>
+        <v>366.2</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -786,10 +894,13 @@
       <c r="C36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
-        <v>338.47584704379835</v>
+        <v>338.5</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -797,10 +908,13 @@
       <c r="C37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
-        <v>268.42776048342796</v>
+        <v>268.4</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -808,10 +922,13 @@
       <c r="C38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
-        <v>244.52444607214795</v>
+        <v>244.5</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -819,10 +936,13 @@
       <c r="C39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
-        <v>240.04834279436002</v>
+        <v>240.0</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -830,10 +950,13 @@
       <c r="C40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
-        <v>254.9994506500641</v>
+        <v>255.0</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -841,10 +964,13 @@
       <c r="C41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
-        <v>309.70588235294116</v>
+        <v>309.7</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -852,10 +978,13 @@
       <c r="C42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
-        <v>326.8588235294118</v>
+        <v>326.9</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -863,10 +992,13 @@
       <c r="C43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
-        <v>325.3764705882353</v>
+        <v>325.4</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -874,10 +1006,13 @@
       <c r="C44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
-        <v>305.25882352941176</v>
+        <v>305.3</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -885,10 +1020,13 @@
       <c r="C45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
-        <v>259.59743795036024</v>
+        <v>259.6</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -896,10 +1034,13 @@
       <c r="C46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
-        <v>241.28198558847072</v>
+        <v>241.3</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -907,10 +1048,13 @@
       <c r="C47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
-        <v>231.6422738190552</v>
+        <v>231.6</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -918,10 +1062,13 @@
       <c r="C48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
-        <v>230.67830264211366</v>
+        <v>230.7</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -929,10 +1076,13 @@
       <c r="C49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
-        <v>234.07420927097377</v>
+        <v>234.1</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -940,10 +1090,13 @@
       <c r="C50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
-        <v>233.09194234159492</v>
+        <v>233.1</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -951,10 +1104,13 @@
       <c r="C51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
-        <v>236.30886653531056</v>
+        <v>236.3</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -962,10 +1118,13 @@
       <c r="C52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
-        <v>243.7249818521207</v>
+        <v>243.7</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -973,10 +1132,13 @@
       <c r="C53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
-        <v>252.4368124248867</v>
+        <v>252.4</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -984,10 +1146,13 @@
       <c r="C54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
-        <v>259.891189793843</v>
+        <v>259.9</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -995,10 +1160,13 @@
       <c r="C55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
-        <v>270.72718868447805</v>
+        <v>270.7</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -1006,10 +1174,13 @@
       <c r="C56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
-        <v>284.944809096792</v>
+        <v>284.9</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -1017,10 +1188,13 @@
       <c r="C57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
-        <v>321.26016658500737</v>
+        <v>321.3</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -1028,10 +1202,13 @@
       <c r="C58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
-        <v>336.5279764821166</v>
+        <v>336.5</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -1039,10 +1216,13 @@
       <c r="C59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
-        <v>332.23390494855465</v>
+        <v>332.2</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -1050,10 +1230,13 @@
       <c r="C60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
-        <v>308.37795198432144</v>
+        <v>308.4</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -1061,10 +1244,13 @@
       <c r="C61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
-        <v>259.127022020992</v>
+        <v>259.1</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -1072,10 +1258,13 @@
       <c r="C62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
-        <v>237.40032928586132</v>
+        <v>237.4</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -1083,10 +1272,13 @@
       <c r="C63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
-        <v>223.73665363243472</v>
+        <v>223.7</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -1094,10 +1286,13 @@
       <c r="C64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
-        <v>218.13599506071208</v>
+        <v>218.1</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -1105,10 +1300,13 @@
       <c r="C65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
-        <v>215.68728705527874</v>
+        <v>215.7</v>
       </c>
       <c r="B66">
         <v>65</v>
@@ -1116,10 +1314,13 @@
       <c r="C66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
-        <v>210.00356935913774</v>
+        <v>210.0</v>
       </c>
       <c r="B67">
         <v>66</v>
@@ -1127,10 +1328,13 @@
       <c r="C67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68">
-        <v>208.5581411519295</v>
+        <v>208.6</v>
       </c>
       <c r="B68">
         <v>67</v>
@@ -1138,10 +1342,13 @@
       <c r="C68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69">
-        <v>211.35100243365397</v>
+        <v>211.4</v>
       </c>
       <c r="B69">
         <v>68</v>
@@ -1149,10 +1356,13 @@
       <c r="C69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70">
-        <v>204.0971284845944</v>
+        <v>204.1</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -1160,10 +1370,13 @@
       <c r="C70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71">
-        <v>206.75896038566339</v>
+        <v>206.8</v>
       </c>
       <c r="B71">
         <v>70</v>
@@ -1171,10 +1384,13 @@
       <c r="C71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72">
-        <v>224.1309159505345</v>
+        <v>224.1</v>
       </c>
       <c r="B72">
         <v>71</v>
@@ -1182,10 +1398,13 @@
       <c r="C72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73">
-        <v>256.2129951792077</v>
+        <v>256.2</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -1193,10 +1412,13 @@
       <c r="C73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74">
-        <v>331.9938339802926</v>
+        <v>332.0</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -1204,10 +1426,13 @@
       <c r="C74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75">
-        <v>368.93880262765003</v>
+        <v>368.9</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -1215,10 +1440,13 @@
       <c r="C75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76">
-        <v>378.67248432367865</v>
+        <v>378.7</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -1226,10 +1454,13 @@
       <c r="C76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77">
-        <v>361.19487906837855</v>
+        <v>361.2</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -1237,10 +1468,13 @@
       <c r="C77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78">
-        <v>307.8431718061674</v>
+        <v>307.8</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -1248,10 +1482,13 @@
       <c r="C78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79">
-        <v>292.1897209985316</v>
+        <v>292.2</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -1259,10 +1496,13 @@
       <c r="C79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80">
-        <v>287.3732745961821</v>
+        <v>287.4</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -1270,10 +1510,13 @@
       <c r="C80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81">
-        <v>293.3938325991189</v>
+        <v>293.4</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -1281,10 +1524,13 @@
       <c r="C81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82">
-        <v>324.8242983028721</v>
+        <v>324.8</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -1292,10 +1538,13 @@
       <c r="C82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83">
-        <v>331.3557930809399</v>
+        <v>331.4</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -1303,10 +1552,13 @@
       <c r="C83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84">
-        <v>323.465747389034</v>
+        <v>323.5</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -1314,10 +1566,13 @@
       <c r="C84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85">
-        <v>301.1541612271541</v>
+        <v>301.2</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -1325,10 +1580,13 @@
       <c r="C85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86">
-        <v>219.3261333800105</v>
+        <v>219.3</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -1336,10 +1594,13 @@
       <c r="C86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87">
-        <v>201.7767547698232</v>
+        <v>201.8</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -1347,10 +1608,13 @@
       <c r="C87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88">
-        <v>226.02531069490638</v>
+        <v>226.0</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -1358,10 +1622,13 @@
       <c r="C88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89">
-        <v>292.07180115525995</v>
+        <v>292.1</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -1369,10 +1636,13 @@
       <c r="C89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90">
-        <v>504.9699088304247</v>
+        <v>505.0</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -1380,10 +1650,13 @@
       <c r="C90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91">
-        <v>598.0997238864289</v>
+        <v>598.1</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -1391,10 +1664,13 @@
       <c r="C91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92">
-        <v>602.7649075280023</v>
+        <v>602.8</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -1402,10 +1678,13 @@
       <c r="C92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93">
-        <v>518.9654597551446</v>
+        <v>519.0</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -1413,10 +1692,13 @@
       <c r="C93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94">
-        <v>375.45000000000005</v>
+        <v>375.5</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -1424,10 +1706,13 @@
       <c r="C94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95">
-        <v>303.15</v>
+        <v>303.2</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -1435,10 +1720,13 @@
       <c r="C95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96">
-        <v>230.85</v>
+        <v>230.8</v>
       </c>
       <c r="B96">
         <v>95</v>
@@ -1446,10 +1734,13 @@
       <c r="C96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97">
-        <v>158.54999999999998</v>
+        <v>158.5</v>
       </c>
       <c r="B97">
         <v>96</v>
@@ -1457,10 +1748,13 @@
       <c r="C97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98">
-        <v>112.39999999999999</v>
+        <v>112.4</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1468,8 +1762,11 @@
       <c r="C98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>129.2</v>
       </c>
@@ -1479,8 +1776,11 @@
       <c r="C99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>146.0</v>
       </c>
@@ -1490,8 +1790,11 @@
       <c r="C100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>162.8</v>
       </c>
@@ -1501,10 +1804,13 @@
       <c r="C101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102">
-        <v>176.6458398367151</v>
+        <v>176.6</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -1512,10 +1818,13 @@
       <c r="C102">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103">
-        <v>193.16950414215395</v>
+        <v>193.2</v>
       </c>
       <c r="B103">
         <v>6</v>
@@ -1523,10 +1832,13 @@
       <c r="C103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104">
-        <v>213.06183215271946</v>
+        <v>213.1</v>
       </c>
       <c r="B104">
         <v>7</v>
@@ -1534,10 +1846,13 @@
       <c r="C104">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105">
-        <v>236.3228238684116</v>
+        <v>236.3</v>
       </c>
       <c r="B105">
         <v>8</v>
@@ -1545,10 +1860,13 @@
       <c r="C105">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106">
-        <v>280.88205811783536</v>
+        <v>280.9</v>
       </c>
       <c r="B106">
         <v>9</v>
@@ -1556,10 +1874,13 @@
       <c r="C106">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107">
-        <v>306.051559584111</v>
+        <v>306.1</v>
       </c>
       <c r="B107">
         <v>10</v>
@@ -1567,10 +1888,13 @@
       <c r="C107">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108">
-        <v>311.9847507331379</v>
+        <v>312.0</v>
       </c>
       <c r="B108">
         <v>11</v>
@@ -1578,10 +1902,13 @@
       <c r="C108">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109">
-        <v>298.6816315649161</v>
+        <v>298.7</v>
       </c>
       <c r="B109">
         <v>12</v>
@@ -1589,10 +1916,13 @@
       <c r="C109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110">
-        <v>267.05245083358295</v>
+        <v>267.1</v>
       </c>
       <c r="B110">
         <v>13</v>
@@ -1600,10 +1930,13 @@
       <c r="C110">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111">
-        <v>254.60361385644407</v>
+        <v>254.6</v>
       </c>
       <c r="B111">
         <v>14</v>
@@ -1611,10 +1944,13 @@
       <c r="C111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112">
-        <v>243.17558151143058</v>
+        <v>243.2</v>
       </c>
       <c r="B112">
         <v>15</v>
@@ -1622,10 +1958,13 @@
       <c r="C112">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113">
-        <v>232.7683537985425</v>
+        <v>232.8</v>
       </c>
       <c r="B113">
         <v>16</v>
@@ -1633,10 +1972,13 @@
       <c r="C113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114">
-        <v>210.0221567739012</v>
+        <v>210.0</v>
       </c>
       <c r="B114">
         <v>17</v>
@@ -1644,10 +1986,13 @@
       <c r="C114">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115">
-        <v>200.19243316719528</v>
+        <v>200.2</v>
       </c>
       <c r="B115">
         <v>18</v>
@@ -1655,10 +2000,13 @@
       <c r="C115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116">
-        <v>202.68513819664705</v>
+        <v>202.7</v>
       </c>
       <c r="B116">
         <v>19</v>
@@ -1666,10 +2014,13 @@
       <c r="C116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117">
-        <v>217.50027186225645</v>
+        <v>217.5</v>
       </c>
       <c r="B117">
         <v>20</v>
@@ -1677,10 +2028,13 @@
       <c r="C117">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118">
-        <v>256.5013816925734</v>
+        <v>256.5</v>
       </c>
       <c r="B118">
         <v>21</v>
@@ -1688,10 +2042,13 @@
       <c r="C118">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119">
-        <v>272.8588946459413</v>
+        <v>272.9</v>
       </c>
       <c r="B119">
         <v>22</v>
@@ -1699,10 +2056,13 @@
       <c r="C119">
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120">
-        <v>278.77875647668395</v>
+        <v>278.8</v>
       </c>
       <c r="B120">
         <v>23</v>
@@ -1710,10 +2070,13 @@
       <c r="C120">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121">
-        <v>274.26096718480136</v>
+        <v>274.3</v>
       </c>
       <c r="B121">
         <v>24</v>
@@ -1721,10 +2084,13 @@
       <c r="C121">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122">
-        <v>245.29045132413276</v>
+        <v>245.3</v>
       </c>
       <c r="B122">
         <v>25</v>
@@ -1732,10 +2098,13 @@
       <c r="C122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123">
-        <v>241.18220813129426</v>
+        <v>241.2</v>
       </c>
       <c r="B123">
         <v>26</v>
@@ -1743,10 +2112,13 @@
       <c r="C123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124">
-        <v>251.14587840358067</v>
+        <v>251.1</v>
       </c>
       <c r="B124">
         <v>27</v>
@@ -1754,10 +2126,13 @@
       <c r="C124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125">
-        <v>275.1814621409921</v>
+        <v>275.2</v>
       </c>
       <c r="B125">
         <v>28</v>
@@ -1765,10 +2140,13 @@
       <c r="C125">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126">
-        <v>342.591760584831</v>
+        <v>342.6</v>
       </c>
       <c r="B126">
         <v>29</v>
@@ -1776,10 +2154,13 @@
       <c r="C126">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127">
-        <v>370.1115595491928</v>
+        <v>370.1</v>
       </c>
       <c r="B127">
         <v>30</v>
@@ -1787,10 +2168,13 @@
       <c r="C127">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128">
-        <v>368.7598994821809</v>
+        <v>368.8</v>
       </c>
       <c r="B128">
         <v>31</v>
@@ -1798,10 +2182,13 @@
       <c r="C128">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129">
-        <v>338.5367803837953</v>
+        <v>338.5</v>
       </c>
       <c r="B129">
         <v>32</v>
@@ -1809,10 +2196,13 @@
       <c r="C129">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130">
-        <v>257.7305333581118</v>
+        <v>257.7</v>
       </c>
       <c r="B130">
         <v>33</v>
@@ -1820,10 +2210,13 @@
       <c r="C130">
         <v>2</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131">
-        <v>232.465935699684</v>
+        <v>232.5</v>
       </c>
       <c r="B131">
         <v>34</v>
@@ -1831,10 +2224,13 @@
       <c r="C131">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132">
-        <v>230.56770117078605</v>
+        <v>230.6</v>
       </c>
       <c r="B132">
         <v>35</v>
@@ -1842,10 +2238,13 @@
       <c r="C132">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133">
-        <v>252.0358297714179</v>
+        <v>252.0</v>
       </c>
       <c r="B133">
         <v>36</v>
@@ -1853,10 +2252,13 @@
       <c r="C133">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134">
-        <v>321.8710859479437</v>
+        <v>321.9</v>
       </c>
       <c r="B134">
         <v>37</v>
@@ -1864,10 +2266,13 @@
       <c r="C134">
         <v>2</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135">
-        <v>347.1356923802784</v>
+        <v>347.1</v>
       </c>
       <c r="B135">
         <v>38</v>
@@ -1875,10 +2280,13 @@
       <c r="C135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136">
-        <v>350.83230321616736</v>
+        <v>350.8</v>
       </c>
       <c r="B136">
         <v>39</v>
@@ -1886,10 +2294,13 @@
       <c r="C136">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137">
-        <v>332.9609184556106</v>
+        <v>333.0</v>
       </c>
       <c r="B137">
         <v>40</v>
@@ -1897,10 +2308,13 @@
       <c r="C137">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138">
-        <v>296.1453606345693</v>
+        <v>296.1</v>
       </c>
       <c r="B138">
         <v>41</v>
@@ -1908,10 +2322,13 @@
       <c r="C138">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139">
-        <v>279.34845969378347</v>
+        <v>279.3</v>
       </c>
       <c r="B139">
         <v>42</v>
@@ -1919,10 +2336,13 @@
       <c r="C139">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140">
-        <v>262.6015495296071</v>
+        <v>262.6</v>
       </c>
       <c r="B140">
         <v>43</v>
@@ -1930,10 +2350,13 @@
       <c r="C140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141">
-        <v>245.90463014204025</v>
+        <v>245.9</v>
       </c>
       <c r="B141">
         <v>44</v>
@@ -1941,10 +2364,13 @@
       <c r="C141">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142">
-        <v>212.3031746031746</v>
+        <v>212.3</v>
       </c>
       <c r="B142">
         <v>45</v>
@@ -1952,10 +2378,13 @@
       <c r="C142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143">
-        <v>196.83768707482992</v>
+        <v>196.8</v>
       </c>
       <c r="B143">
         <v>46</v>
@@ -1963,10 +2392,13 @@
       <c r="C143">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144">
-        <v>196.46725623582765</v>
+        <v>196.5</v>
       </c>
       <c r="B144">
         <v>47</v>
@@ -1974,10 +2406,13 @@
       <c r="C144">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145">
-        <v>211.1918820861678</v>
+        <v>211.2</v>
       </c>
       <c r="B145">
         <v>48</v>
@@ -1985,10 +2420,13 @@
       <c r="C145">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146">
-        <v>257.6096608832807</v>
+        <v>257.6</v>
       </c>
       <c r="B146">
         <v>49</v>
@@ -1996,10 +2434,13 @@
       <c r="C146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147">
-        <v>274.3999605678233</v>
+        <v>274.4</v>
       </c>
       <c r="B147">
         <v>50</v>
@@ -2007,10 +2448,13 @@
       <c r="C147">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148">
-        <v>276.1951498422713</v>
+        <v>276.2</v>
       </c>
       <c r="B148">
         <v>51</v>
@@ -2018,10 +2462,13 @@
       <c r="C148">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149">
-        <v>262.9952287066246</v>
+        <v>263.0</v>
       </c>
       <c r="B149">
         <v>52</v>
@@ -2029,10 +2476,13 @@
       <c r="C149">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150">
-        <v>216.01924528301885</v>
+        <v>216.0</v>
       </c>
       <c r="B150">
         <v>53</v>
@@ -2040,10 +2490,13 @@
       <c r="C150">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151">
-        <v>204.60415094339618</v>
+        <v>204.6</v>
       </c>
       <c r="B151">
         <v>54</v>
@@ -2051,10 +2504,13 @@
       <c r="C151">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152">
-        <v>212.09245283018865</v>
+        <v>212.1</v>
       </c>
       <c r="B152">
         <v>55</v>
@@ -2062,10 +2518,13 @@
       <c r="C152">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153">
-        <v>238.48415094339617</v>
+        <v>238.5</v>
       </c>
       <c r="B153">
         <v>56</v>
@@ -2073,10 +2532,13 @@
       <c r="C153">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154">
-        <v>298.3039099251948</v>
+        <v>298.3</v>
       </c>
       <c r="B154">
         <v>57</v>
@@ -2084,10 +2546,13 @@
       <c r="C154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155">
-        <v>328.02631294825335</v>
+        <v>328.0</v>
       </c>
       <c r="B155">
         <v>58</v>
@@ -2095,10 +2560,13 @@
       <c r="C155">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156">
-        <v>348.2612015115293</v>
+        <v>348.3</v>
       </c>
       <c r="B156">
         <v>59</v>
@@ -2106,10 +2574,13 @@
       <c r="C156">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157">
-        <v>359.00857561502283</v>
+        <v>359.0</v>
       </c>
       <c r="B157">
         <v>60</v>
@@ -2117,10 +2588,13 @@
       <c r="C157">
         <v>2</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158">
-        <v>381.78385339276866</v>
+        <v>381.8</v>
       </c>
       <c r="B158">
         <v>61</v>
@@ -2128,10 +2602,13 @@
       <c r="C158">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159">
-        <v>392.8808320950966</v>
+        <v>392.9</v>
       </c>
       <c r="B159">
         <v>62</v>
@@ -2139,10 +2616,13 @@
       <c r="C159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160">
-        <v>380.748489351164</v>
+        <v>380.7</v>
       </c>
       <c r="B160">
         <v>63</v>
@@ -2150,10 +2630,13 @@
       <c r="C160">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161">
-        <v>345.3868251609708</v>
+        <v>345.4</v>
       </c>
       <c r="B161">
         <v>64</v>
@@ -2161,10 +2644,13 @@
       <c r="C161">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162">
-        <v>274.77647058823527</v>
+        <v>274.8</v>
       </c>
       <c r="B162">
         <v>65</v>
@@ -2172,10 +2658,13 @@
       <c r="C162">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163">
-        <v>243.43529411764703</v>
+        <v>243.4</v>
       </c>
       <c r="B163">
         <v>66</v>
@@ -2183,10 +2672,13 @@
       <c r="C163">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164">
-        <v>226.32941176470587</v>
+        <v>226.3</v>
       </c>
       <c r="B164">
         <v>67</v>
@@ -2194,10 +2686,13 @@
       <c r="C164">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165">
-        <v>223.45882352941177</v>
+        <v>223.5</v>
       </c>
       <c r="B165">
         <v>68</v>
@@ -2205,10 +2700,13 @@
       <c r="C165">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166">
-        <v>236.7184924733546</v>
+        <v>236.7</v>
       </c>
       <c r="B166">
         <v>69</v>
@@ -2216,10 +2714,13 @@
       <c r="C166">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167">
-        <v>233.6379958246347</v>
+        <v>233.6</v>
       </c>
       <c r="B167">
         <v>70</v>
@@ -2227,10 +2728,13 @@
       <c r="C167">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168">
-        <v>228.25975167564008</v>
+        <v>228.3</v>
       </c>
       <c r="B168">
         <v>71</v>
@@ -2238,10 +2742,13 @@
       <c r="C168">
         <v>2</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169">
-        <v>220.58376002637073</v>
+        <v>220.6</v>
       </c>
       <c r="B169">
         <v>72</v>
@@ -2249,10 +2756,13 @@
       <c r="C169">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170">
-        <v>194.6221553420535</v>
+        <v>194.6</v>
       </c>
       <c r="B170">
         <v>73</v>
@@ -2260,10 +2770,13 @@
       <c r="C170">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171">
-        <v>187.60541729366824</v>
+        <v>187.6</v>
       </c>
       <c r="B171">
         <v>74</v>
@@ -2271,10 +2784,13 @@
       <c r="C171">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172">
-        <v>195.8916309758074</v>
+        <v>195.9</v>
       </c>
       <c r="B172">
         <v>75</v>
@@ -2282,10 +2798,13 @@
       <c r="C172">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173">
-        <v>219.4807963884709</v>
+        <v>219.5</v>
       </c>
       <c r="B173">
         <v>76</v>
@@ -2293,10 +2812,13 @@
       <c r="C173">
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174">
-        <v>281.249411139644</v>
+        <v>281.2</v>
       </c>
       <c r="B174">
         <v>77</v>
@@ -2304,10 +2826,13 @@
       <c r="C174">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175">
-        <v>308.54377047728684</v>
+        <v>308.5</v>
       </c>
       <c r="B175">
         <v>78</v>
@@ -2315,10 +2840,13 @@
       <c r="C175">
         <v>2</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176">
-        <v>315.2471796688214</v>
+        <v>315.2</v>
       </c>
       <c r="B176">
         <v>79</v>
@@ -2326,10 +2854,13 @@
       <c r="C176">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177">
-        <v>301.35963871424775</v>
+        <v>301.4</v>
       </c>
       <c r="B177">
         <v>80</v>
@@ -2337,10 +2868,13 @@
       <c r="C177">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178">
-        <v>247.14326188943065</v>
+        <v>247.1</v>
       </c>
       <c r="B178">
         <v>81</v>
@@ -2348,10 +2882,13 @@
       <c r="C178">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="D178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179">
-        <v>235.2039738754485</v>
+        <v>235.2</v>
       </c>
       <c r="B179">
         <v>82</v>
@@ -2359,10 +2896,13 @@
       <c r="C179">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180">
-        <v>243.63035599300892</v>
+        <v>243.6</v>
       </c>
       <c r="B180">
         <v>83</v>
@@ -2370,10 +2910,13 @@
       <c r="C180">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181">
-        <v>272.42240824211206</v>
+        <v>272.4</v>
       </c>
       <c r="B181">
         <v>84</v>
@@ -2381,10 +2924,13 @@
       <c r="C181">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182">
-        <v>346.745489145757</v>
+        <v>346.7</v>
       </c>
       <c r="B182">
         <v>85</v>
@@ -2392,10 +2938,13 @@
       <c r="C182">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="D182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183">
-        <v>379.88969551733857</v>
+        <v>379.9</v>
       </c>
       <c r="B183">
         <v>86</v>
@@ -2403,10 +2952,13 @@
       <c r="C183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184">
-        <v>391.5721031857908</v>
+        <v>391.6</v>
       </c>
       <c r="B184">
         <v>87</v>
@@ -2414,10 +2966,13 @@
       <c r="C184">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185">
-        <v>381.7927121511136</v>
+        <v>381.8</v>
       </c>
       <c r="B185">
         <v>88</v>
@@ -2425,10 +2980,13 @@
       <c r="C185">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="D185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186">
-        <v>372.24960876369323</v>
+        <v>372.2</v>
       </c>
       <c r="B186">
         <v>89</v>
@@ -2436,10 +2994,13 @@
       <c r="C186">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="D186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187">
-        <v>362.4640062597809</v>
+        <v>362.5</v>
       </c>
       <c r="B187">
         <v>90</v>
@@ -2447,10 +3008,13 @@
       <c r="C187">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188">
-        <v>333.1071987480438</v>
+        <v>333.1</v>
       </c>
       <c r="B188">
         <v>91</v>
@@ -2458,10 +3022,13 @@
       <c r="C188">
         <v>2</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189">
-        <v>284.17918622848197</v>
+        <v>284.2</v>
       </c>
       <c r="B189">
         <v>92</v>
@@ -2469,10 +3036,13 @@
       <c r="C189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="D189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190">
-        <v>222.375</v>
+        <v>222.4</v>
       </c>
       <c r="B190">
         <v>93</v>
@@ -2480,10 +3050,13 @@
       <c r="C190">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="D190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191">
-        <v>176.125</v>
+        <v>176.1</v>
       </c>
       <c r="B191">
         <v>94</v>
@@ -2491,10 +3064,13 @@
       <c r="C191">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="D191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192">
-        <v>129.875</v>
+        <v>129.9</v>
       </c>
       <c r="B192">
         <v>95</v>
@@ -2502,10 +3078,13 @@
       <c r="C192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="D192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193">
-        <v>83.625</v>
+        <v>83.6</v>
       </c>
       <c r="B193">
         <v>96</v>
@@ -2513,10 +3092,13 @@
       <c r="C193">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="D193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194">
-        <v>137.75</v>
+        <v>137.8</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -2524,10 +3106,13 @@
       <c r="C194">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="D194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195">
-        <v>169.25</v>
+        <v>169.2</v>
       </c>
       <c r="B195">
         <v>2</v>
@@ -2535,10 +3120,13 @@
       <c r="C195">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="D195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196">
-        <v>200.75</v>
+        <v>200.8</v>
       </c>
       <c r="B196">
         <v>3</v>
@@ -2546,10 +3134,13 @@
       <c r="C196">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="D196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197">
-        <v>232.25</v>
+        <v>232.2</v>
       </c>
       <c r="B197">
         <v>4</v>
@@ -2557,10 +3148,13 @@
       <c r="C197">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="D197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198">
-        <v>291.0280290934894</v>
+        <v>291.0</v>
       </c>
       <c r="B198">
         <v>5</v>
@@ -2568,10 +3162,13 @@
       <c r="C198">
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="D198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199">
-        <v>325.78587901365967</v>
+        <v>325.8</v>
       </c>
       <c r="B199">
         <v>6</v>
@@ -2579,10 +3176,13 @@
       <c r="C199">
         <v>3</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="D199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200">
-        <v>328.3789249600851</v>
+        <v>328.4</v>
       </c>
       <c r="B200">
         <v>7</v>
@@ -2590,10 +3190,13 @@
       <c r="C200">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201">
-        <v>298.8071669327656</v>
+        <v>298.8</v>
       </c>
       <c r="B201">
         <v>8</v>
@@ -2601,10 +3204,13 @@
       <c r="C201">
         <v>3</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="D201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202">
-        <v>215.362494586401</v>
+        <v>215.4</v>
       </c>
       <c r="B202">
         <v>9</v>
@@ -2612,10 +3218,13 @@
       <c r="C202">
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203">
-        <v>191.70792550887828</v>
+        <v>191.7</v>
       </c>
       <c r="B203">
         <v>10</v>
@@ -2623,10 +3232,13 @@
       <c r="C203">
         <v>3</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204">
-        <v>191.9727154612386</v>
+        <v>192.0</v>
       </c>
       <c r="B204">
         <v>11</v>
@@ -2634,10 +3246,13 @@
       <c r="C204">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205">
-        <v>216.15686444348196</v>
+        <v>216.2</v>
       </c>
       <c r="B205">
         <v>12</v>
@@ -2645,10 +3260,13 @@
       <c r="C205">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206">
-        <v>288.50175794455714</v>
+        <v>288.5</v>
       </c>
       <c r="B206">
         <v>13</v>
@@ -2656,10 +3274,13 @@
       <c r="C206">
         <v>3</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207">
-        <v>317.53204868154154</v>
+        <v>317.5</v>
       </c>
       <c r="B207">
         <v>14</v>
@@ -2667,10 +3288,13 @@
       <c r="C207">
         <v>3</v>
       </c>
-    </row>
-    <row r="208" spans="1:3">
+      <c r="D207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208">
-        <v>327.9151453684921</v>
+        <v>327.9</v>
       </c>
       <c r="B208">
         <v>15</v>
@@ -2678,10 +3302,13 @@
       <c r="C208">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
+      <c r="D208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209">
-        <v>319.651048005409</v>
+        <v>319.7</v>
       </c>
       <c r="B209">
         <v>16</v>
@@ -2689,10 +3316,13 @@
       <c r="C209">
         <v>3</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210">
-        <v>283.7932591958939</v>
+        <v>283.8</v>
       </c>
       <c r="B210">
         <v>17</v>
@@ -2700,10 +3330,13 @@
       <c r="C210">
         <v>3</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
+      <c r="D210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211">
-        <v>276.261488451668</v>
+        <v>276.3</v>
       </c>
       <c r="B211">
         <v>18</v>
@@ -2711,10 +3344,13 @@
       <c r="C211">
         <v>3</v>
       </c>
-    </row>
-    <row r="212" spans="1:3">
+      <c r="D211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212">
-        <v>278.434114627887</v>
+        <v>278.4</v>
       </c>
       <c r="B212">
         <v>19</v>
@@ -2722,10 +3358,13 @@
       <c r="C212">
         <v>3</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="D212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213">
-        <v>290.31113772455086</v>
+        <v>290.3</v>
       </c>
       <c r="B213">
         <v>20</v>
@@ -2733,10 +3372,13 @@
       <c r="C213">
         <v>3</v>
       </c>
-    </row>
-    <row r="214" spans="1:3">
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214">
-        <v>310.83959238723213</v>
+        <v>310.8</v>
       </c>
       <c r="B214">
         <v>21</v>
@@ -2744,10 +3386,13 @@
       <c r="C214">
         <v>3</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215">
-        <v>323.05664618612315</v>
+        <v>323.1</v>
       </c>
       <c r="B215">
         <v>22</v>
@@ -2755,10 +3400,13 @@
       <c r="C215">
         <v>3</v>
       </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="D215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216">
-        <v>337.5085268994455</v>
+        <v>337.5</v>
       </c>
       <c r="B216">
         <v>23</v>
@@ -2766,10 +3414,13 @@
       <c r="C216">
         <v>3</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
+      <c r="D216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217">
-        <v>354.1952345271992</v>
+        <v>354.2</v>
       </c>
       <c r="B217">
         <v>24</v>
@@ -2777,10 +3428,13 @@
       <c r="C217">
         <v>3</v>
       </c>
-    </row>
-    <row r="218" spans="1:3">
+      <c r="D217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218">
-        <v>397.0581299186341</v>
+        <v>397.1</v>
       </c>
       <c r="B218">
         <v>25</v>
@@ -2788,10 +3442,13 @@
       <c r="C218">
         <v>3</v>
       </c>
-    </row>
-    <row r="219" spans="1:3">
+      <c r="D218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219">
-        <v>414.92255568894234</v>
+        <v>414.9</v>
       </c>
       <c r="B219">
         <v>26</v>
@@ -2799,10 +3456,13 @@
       <c r="C219">
         <v>3</v>
       </c>
-    </row>
-    <row r="220" spans="1:3">
+      <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220">
-        <v>407.53221288515414</v>
+        <v>407.5</v>
       </c>
       <c r="B220">
         <v>27</v>
@@ -2810,10 +3470,13 @@
       <c r="C220">
         <v>3</v>
       </c>
-    </row>
-    <row r="221" spans="1:3">
+      <c r="D220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221">
-        <v>374.8871015072696</v>
+        <v>374.9</v>
       </c>
       <c r="B221">
         <v>28</v>
@@ -2821,10 +3484,13 @@
       <c r="C221">
         <v>3</v>
       </c>
-    </row>
-    <row r="222" spans="1:3">
+      <c r="D221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222">
-        <v>325.8074142044412</v>
+        <v>325.8</v>
       </c>
       <c r="B222">
         <v>29</v>
@@ -2832,10 +3498,13 @@
       <c r="C222">
         <v>3</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
+      <c r="D222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223">
-        <v>294.7299320976326</v>
+        <v>294.7</v>
       </c>
       <c r="B223">
         <v>30</v>
@@ -2843,10 +3512,13 @@
       <c r="C223">
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:3">
+      <c r="D223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224">
-        <v>260.2612589465958</v>
+        <v>260.3</v>
       </c>
       <c r="B224">
         <v>31</v>
@@ -2854,10 +3526,13 @@
       <c r="C224">
         <v>3</v>
       </c>
-    </row>
-    <row r="225" spans="1:3">
+      <c r="D224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225">
-        <v>222.4013947513305</v>
+        <v>222.4</v>
       </c>
       <c r="B225">
         <v>32</v>
@@ -2865,10 +3540,13 @@
       <c r="C225">
         <v>3</v>
       </c>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="D225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226">
-        <v>135.0727139292529</v>
+        <v>135.1</v>
       </c>
       <c r="B226">
         <v>33</v>
@@ -2876,10 +3554,13 @@
       <c r="C226">
         <v>3</v>
       </c>
-    </row>
-    <row r="227" spans="1:3">
+      <c r="D226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227">
-        <v>107.36169088507266</v>
+        <v>107.4</v>
       </c>
       <c r="B227">
         <v>34</v>
@@ -2887,10 +3568,13 @@
       <c r="C227">
         <v>3</v>
       </c>
-    </row>
-    <row r="228" spans="1:3">
+      <c r="D227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228">
-        <v>112.34448847790988</v>
+        <v>112.3</v>
       </c>
       <c r="B228">
         <v>35</v>
@@ -2898,10 +3582,13 @@
       <c r="C228">
         <v>3</v>
       </c>
-    </row>
-    <row r="229" spans="1:3">
+      <c r="D228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229">
-        <v>150.02110670776457</v>
+        <v>150.0</v>
       </c>
       <c r="B229">
         <v>36</v>
@@ -2909,10 +3596,13 @@
       <c r="C229">
         <v>3</v>
       </c>
-    </row>
-    <row r="230" spans="1:3">
+      <c r="D229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230">
-        <v>274.52217655761956</v>
+        <v>274.5</v>
       </c>
       <c r="B230">
         <v>37</v>
@@ -2920,10 +3610,13 @@
       <c r="C230">
         <v>3</v>
       </c>
-    </row>
-    <row r="231" spans="1:3">
+      <c r="D230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231">
-        <v>329.62709189544626</v>
+        <v>329.6</v>
       </c>
       <c r="B231">
         <v>38</v>
@@ -2931,10 +3624,13 @@
       <c r="C231">
         <v>3</v>
       </c>
-    </row>
-    <row r="232" spans="1:3">
+      <c r="D231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232">
-        <v>357.15245766891337</v>
+        <v>357.2</v>
       </c>
       <c r="B232">
         <v>39</v>
@@ -2942,10 +3638,13 @@
       <c r="C232">
         <v>3</v>
       </c>
-    </row>
-    <row r="233" spans="1:3">
+      <c r="D232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233">
-        <v>357.0982738780207</v>
+        <v>357.1</v>
       </c>
       <c r="B233">
         <v>40</v>
@@ -2953,10 +3652,13 @@
       <c r="C233">
         <v>3</v>
       </c>
-    </row>
-    <row r="234" spans="1:3">
+      <c r="D233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234">
-        <v>336.055318160706</v>
+        <v>336.1</v>
       </c>
       <c r="B234">
         <v>41</v>
@@ -2964,10 +3666,13 @@
       <c r="C234">
         <v>3</v>
       </c>
-    </row>
-    <row r="235" spans="1:3">
+      <c r="D234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235">
-        <v>336.0043195541105</v>
+        <v>336.0</v>
       </c>
       <c r="B235">
         <v>42</v>
@@ -2975,10 +3680,13 @@
       <c r="C235">
         <v>3</v>
       </c>
-    </row>
-    <row r="236" spans="1:3">
+      <c r="D235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236">
-        <v>329.3745006967022</v>
+        <v>329.4</v>
       </c>
       <c r="B236">
         <v>43</v>
@@ -2986,10 +3694,13 @@
       <c r="C236">
         <v>3</v>
       </c>
-    </row>
-    <row r="237" spans="1:3">
+      <c r="D236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237">
-        <v>316.1658615884812</v>
+        <v>316.2</v>
       </c>
       <c r="B237">
         <v>44</v>
@@ -2997,10 +3708,13 @@
       <c r="C237">
         <v>3</v>
       </c>
-    </row>
-    <row r="238" spans="1:3">
+      <c r="D237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238">
-        <v>284.6927578765645</v>
+        <v>284.7</v>
       </c>
       <c r="B238">
         <v>45</v>
@@ -3008,10 +3722,13 @@
       <c r="C238">
         <v>3</v>
       </c>
-    </row>
-    <row r="239" spans="1:3">
+      <c r="D238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239">
-        <v>272.2804315925766</v>
+        <v>272.3</v>
       </c>
       <c r="B239">
         <v>46</v>
@@ -3019,10 +3736,13 @@
       <c r="C239">
         <v>3</v>
       </c>
-    </row>
-    <row r="240" spans="1:3">
+      <c r="D239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240">
-        <v>271.39383685800595</v>
+        <v>271.4</v>
       </c>
       <c r="B240">
         <v>47</v>
@@ -3030,10 +3750,13 @@
       <c r="C240">
         <v>3</v>
       </c>
-    </row>
-    <row r="241" spans="1:3">
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241">
-        <v>282.0329736728528</v>
+        <v>282.0</v>
       </c>
       <c r="B241">
         <v>48</v>
@@ -3041,10 +3764,13 @@
       <c r="C241">
         <v>3</v>
       </c>
-    </row>
-    <row r="242" spans="1:3">
+      <c r="D241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242">
-        <v>321.39478630383263</v>
+        <v>321.4</v>
       </c>
       <c r="B242">
         <v>49</v>
@@ -3052,10 +3778,13 @@
       <c r="C242">
         <v>3</v>
       </c>
-    </row>
-    <row r="243" spans="1:3">
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243">
-        <v>333.07804200375904</v>
+        <v>333.1</v>
       </c>
       <c r="B243">
         <v>50</v>
@@ -3063,10 +3792,13 @@
       <c r="C243">
         <v>3</v>
       </c>
-    </row>
-    <row r="244" spans="1:3">
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244">
-        <v>327.84162784996323</v>
+        <v>327.8</v>
       </c>
       <c r="B244">
         <v>51</v>
@@ -3074,10 +3806,13 @@
       <c r="C244">
         <v>3</v>
       </c>
-    </row>
-    <row r="245" spans="1:3">
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245">
-        <v>305.68554384244504</v>
+        <v>305.7</v>
       </c>
       <c r="B245">
         <v>52</v>
@@ -3085,10 +3820,13 @@
       <c r="C245">
         <v>3</v>
       </c>
-    </row>
-    <row r="246" spans="1:3">
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246">
-        <v>258.4521888238854</v>
+        <v>258.5</v>
       </c>
       <c r="B246">
         <v>53</v>
@@ -3096,10 +3834,13 @@
       <c r="C246">
         <v>3</v>
       </c>
-    </row>
-    <row r="247" spans="1:3">
+      <c r="D246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247">
-        <v>238.25573935848294</v>
+        <v>238.3</v>
       </c>
       <c r="B247">
         <v>54</v>
@@ -3107,10 +3848,13 @@
       <c r="C247">
         <v>3</v>
       </c>
-    </row>
-    <row r="248" spans="1:3">
+      <c r="D247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248">
-        <v>227.70177526729876</v>
+        <v>227.7</v>
       </c>
       <c r="B248">
         <v>55</v>
@@ -3118,10 +3862,13 @@
       <c r="C248">
         <v>3</v>
       </c>
-    </row>
-    <row r="249" spans="1:3">
+      <c r="D248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249">
-        <v>226.79029655033284</v>
+        <v>226.8</v>
       </c>
       <c r="B249">
         <v>56</v>
@@ -3129,10 +3876,13 @@
       <c r="C249">
         <v>3</v>
       </c>
-    </row>
-    <row r="250" spans="1:3">
+      <c r="D249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250">
-        <v>229.4676663542643</v>
+        <v>229.5</v>
       </c>
       <c r="B250">
         <v>57</v>
@@ -3140,10 +3890,13 @@
       <c r="C250">
         <v>3</v>
       </c>
-    </row>
-    <row r="251" spans="1:3">
+      <c r="D250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251">
-        <v>228.54170571696346</v>
+        <v>228.5</v>
       </c>
       <c r="B251">
         <v>58</v>
@@ -3151,10 +3904,13 @@
       <c r="C251">
         <v>3</v>
       </c>
-    </row>
-    <row r="252" spans="1:3">
+      <c r="D251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252">
-        <v>233.5370196813496</v>
+        <v>233.5</v>
       </c>
       <c r="B252">
         <v>59</v>
@@ -3162,10 +3918,13 @@
       <c r="C252">
         <v>3</v>
       </c>
-    </row>
-    <row r="253" spans="1:3">
+      <c r="D252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253">
-        <v>244.45360824742266</v>
+        <v>244.5</v>
       </c>
       <c r="B253">
         <v>60</v>
@@ -3173,10 +3932,13 @@
       <c r="C253">
         <v>3</v>
       </c>
-    </row>
-    <row r="254" spans="1:3">
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254">
-        <v>250.28473530923418</v>
+        <v>250.3</v>
       </c>
       <c r="B254">
         <v>61</v>
@@ -3184,10 +3946,13 @@
       <c r="C254">
         <v>3</v>
       </c>
-    </row>
-    <row r="255" spans="1:3">
+      <c r="D254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255">
-        <v>260.98393010107924</v>
+        <v>261.0</v>
       </c>
       <c r="B255">
         <v>62</v>
@@ -3195,10 +3960,13 @@
       <c r="C255">
         <v>3</v>
       </c>
-    </row>
-    <row r="256" spans="1:3">
+      <c r="D255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256">
-        <v>284.14959739592246</v>
+        <v>284.1</v>
       </c>
       <c r="B256">
         <v>63</v>
@@ -3206,10 +3974,13 @@
       <c r="C256">
         <v>3</v>
       </c>
-    </row>
-    <row r="257" spans="1:3">
+      <c r="D256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
       <c r="A257">
-        <v>319.7817371937639</v>
+        <v>319.8</v>
       </c>
       <c r="B257">
         <v>64</v>
@@ -3217,10 +3988,13 @@
       <c r="C257">
         <v>3</v>
       </c>
-    </row>
-    <row r="258" spans="1:3">
+      <c r="D257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258">
-        <v>383.8895853423337</v>
+        <v>383.9</v>
       </c>
       <c r="B258">
         <v>65</v>
@@ -3228,10 +4002,13 @@
       <c r="C258">
         <v>3</v>
       </c>
-    </row>
-    <row r="259" spans="1:3">
+      <c r="D258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
       <c r="A259">
-        <v>422.37656702025083</v>
+        <v>422.4</v>
       </c>
       <c r="B259">
         <v>66</v>
@@ -3239,10 +4016,13 @@
       <c r="C259">
         <v>3</v>
       </c>
-    </row>
-    <row r="260" spans="1:3">
+      <c r="D259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260">
-        <v>447.2434908389586</v>
+        <v>447.2</v>
       </c>
       <c r="B260">
         <v>67</v>
@@ -3250,10 +4030,13 @@
       <c r="C260">
         <v>3</v>
       </c>
-    </row>
-    <row r="261" spans="1:3">
+      <c r="D260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
       <c r="A261">
-        <v>458.4903567984572</v>
+        <v>458.5</v>
       </c>
       <c r="B261">
         <v>68</v>
@@ -3261,10 +4044,13 @@
       <c r="C261">
         <v>3</v>
       </c>
-    </row>
-    <row r="262" spans="1:3">
+      <c r="D261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
       <c r="A262">
-        <v>498.65497619324117</v>
+        <v>498.7</v>
       </c>
       <c r="B262">
         <v>69</v>
@@ -3272,10 +4058,13 @@
       <c r="C262">
         <v>3</v>
       </c>
-    </row>
-    <row r="263" spans="1:3">
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263">
-        <v>510.5942166995703</v>
+        <v>510.6</v>
       </c>
       <c r="B263">
         <v>70</v>
@@ -3283,10 +4072,13 @@
       <c r="C263">
         <v>3</v>
       </c>
-    </row>
-    <row r="264" spans="1:3">
+      <c r="D263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
       <c r="A264">
-        <v>477.5696202531646</v>
+        <v>477.6</v>
       </c>
       <c r="B264">
         <v>71</v>
@@ -3294,10 +4086,13 @@
       <c r="C264">
         <v>3</v>
       </c>
-    </row>
-    <row r="265" spans="1:3">
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265">
-        <v>399.58118685402394</v>
+        <v>399.6</v>
       </c>
       <c r="B265">
         <v>72</v>
@@ -3305,10 +4100,13 @@
       <c r="C265">
         <v>3</v>
       </c>
-    </row>
-    <row r="266" spans="1:3">
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266">
-        <v>236.62810915758823</v>
+        <v>236.6</v>
       </c>
       <c r="B266">
         <v>73</v>
@@ -3316,10 +4114,13 @@
       <c r="C266">
         <v>3</v>
       </c>
-    </row>
-    <row r="267" spans="1:3">
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
       <c r="A267">
-        <v>179.24418077877257</v>
+        <v>179.2</v>
       </c>
       <c r="B267">
         <v>74</v>
@@ -3327,10 +4128,13 @@
       <c r="C267">
         <v>3</v>
       </c>
-    </row>
-    <row r="268" spans="1:3">
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
       <c r="A268">
-        <v>158.1080358105922</v>
+        <v>158.1</v>
       </c>
       <c r="B268">
         <v>75</v>
@@ -3338,10 +4142,13 @@
       <c r="C268">
         <v>3</v>
       </c>
-    </row>
-    <row r="269" spans="1:3">
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
       <c r="A269">
-        <v>173.21967425304717</v>
+        <v>173.2</v>
       </c>
       <c r="B269">
         <v>76</v>
@@ -3349,10 +4156,13 @@
       <c r="C269">
         <v>3</v>
       </c>
-    </row>
-    <row r="270" spans="1:3">
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
       <c r="A270">
-        <v>231.33339005483077</v>
+        <v>231.3</v>
       </c>
       <c r="B270">
         <v>77</v>
@@ -3360,10 +4170,13 @@
       <c r="C270">
         <v>3</v>
       </c>
-    </row>
-    <row r="271" spans="1:3">
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
       <c r="A271">
-        <v>249.8955000945358</v>
+        <v>249.9</v>
       </c>
       <c r="B271">
         <v>78</v>
@@ -3371,10 +4184,13 @@
       <c r="C271">
         <v>3</v>
       </c>
-    </row>
-    <row r="272" spans="1:3">
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
       <c r="A272">
-        <v>271.08105501985256</v>
+        <v>271.1</v>
       </c>
       <c r="B272">
         <v>79</v>
@@ -3382,10 +4198,13 @@
       <c r="C272">
         <v>3</v>
       </c>
-    </row>
-    <row r="273" spans="1:3">
+      <c r="D272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
       <c r="A273">
-        <v>294.89005483078085</v>
+        <v>294.9</v>
       </c>
       <c r="B273">
         <v>80</v>
@@ -3393,10 +4212,13 @@
       <c r="C273">
         <v>3</v>
       </c>
-    </row>
-    <row r="274" spans="1:3">
+      <c r="D273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
       <c r="A274">
-        <v>338.6443840446632</v>
+        <v>338.6</v>
       </c>
       <c r="B274">
         <v>81</v>
@@ -3404,10 +4226,13 @@
       <c r="C274">
         <v>3</v>
       </c>
-    </row>
-    <row r="275" spans="1:3">
+      <c r="D274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
       <c r="A275">
-        <v>363.9434364210681</v>
+        <v>363.9</v>
       </c>
       <c r="B275">
         <v>82</v>
@@ -3415,10 +4240,13 @@
       <c r="C275">
         <v>3</v>
       </c>
-    </row>
-    <row r="276" spans="1:3">
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276">
-        <v>370.64952618820246</v>
+        <v>370.6</v>
       </c>
       <c r="B276">
         <v>83</v>
@@ -3426,10 +4254,13 @@
       <c r="C276">
         <v>3</v>
       </c>
-    </row>
-    <row r="277" spans="1:3">
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
       <c r="A277">
-        <v>358.76265334606626</v>
+        <v>358.8</v>
       </c>
       <c r="B277">
         <v>84</v>
@@ -3437,10 +4268,13 @@
       <c r="C277">
         <v>3</v>
       </c>
-    </row>
-    <row r="278" spans="1:3">
+      <c r="D277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
       <c r="A278">
-        <v>340.10650399802165</v>
+        <v>340.1</v>
       </c>
       <c r="B278">
         <v>85</v>
@@ -3448,10 +4282,13 @@
       <c r="C278">
         <v>3</v>
       </c>
-    </row>
-    <row r="279" spans="1:3">
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
       <c r="A279">
-        <v>328.45160333031083</v>
+        <v>328.5</v>
       </c>
       <c r="B279">
         <v>86</v>
@@ -3459,10 +4296,13 @@
       <c r="C279">
         <v>3</v>
       </c>
-    </row>
-    <row r="280" spans="1:3">
+      <c r="D279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280">
-        <v>306.97254966614463</v>
+        <v>307.0</v>
       </c>
       <c r="B280">
         <v>87</v>
@@ -3470,10 +4310,13 @@
       <c r="C280">
         <v>3</v>
       </c>
-    </row>
-    <row r="281" spans="1:3">
+      <c r="D280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
       <c r="A281">
-        <v>275.66934300552305</v>
+        <v>275.7</v>
       </c>
       <c r="B281">
         <v>88</v>
@@ -3481,10 +4324,13 @@
       <c r="C281">
         <v>3</v>
       </c>
-    </row>
-    <row r="282" spans="1:3">
+      <c r="D281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
       <c r="A282">
-        <v>223.96565008025684</v>
+        <v>224.0</v>
       </c>
       <c r="B282">
         <v>89</v>
@@ -3492,10 +4338,13 @@
       <c r="C282">
         <v>3</v>
       </c>
-    </row>
-    <row r="283" spans="1:3">
+      <c r="D282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
       <c r="A283">
-        <v>195.27573774540068</v>
+        <v>195.3</v>
       </c>
       <c r="B283">
         <v>90</v>
@@ -3503,10 +4352,13 @@
       <c r="C283">
         <v>3</v>
       </c>
-    </row>
-    <row r="284" spans="1:3">
+      <c r="D283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
       <c r="A284">
-        <v>177.05504383257193</v>
+        <v>177.1</v>
       </c>
       <c r="B284">
         <v>91</v>
@@ -3514,10 +4366,13 @@
       <c r="C284">
         <v>3</v>
       </c>
-    </row>
-    <row r="285" spans="1:3">
+      <c r="D284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
       <c r="A285">
-        <v>169.30356834177059</v>
+        <v>169.3</v>
       </c>
       <c r="B285">
         <v>92</v>
@@ -3525,8 +4380,11 @@
       <c r="C285">
         <v>3</v>
       </c>
-    </row>
-    <row r="286" spans="1:3">
+      <c r="D285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
       <c r="A286">
         <v>170.9</v>
       </c>
@@ -3536,10 +4394,13 @@
       <c r="C286">
         <v>3</v>
       </c>
-    </row>
-    <row r="287" spans="1:3">
+      <c r="D286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287">
-        <v>162.70000000000002</v>
+        <v>162.7</v>
       </c>
       <c r="B287">
         <v>94</v>
@@ -3547,8 +4408,11 @@
       <c r="C287">
         <v>3</v>
       </c>
-    </row>
-    <row r="288" spans="1:3">
+      <c r="D287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
       <c r="A288">
         <v>154.5</v>
       </c>
@@ -3558,16 +4422,4054 @@
       <c r="C288">
         <v>3</v>
       </c>
-    </row>
-    <row r="289" spans="1:3">
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289">
-        <v>146.29999999999998</v>
+        <v>146.3</v>
       </c>
       <c r="B289">
         <v>96</v>
       </c>
       <c r="C289">
         <v>3</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290">
+        <v>153.0</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291">
+        <v>174.4</v>
+      </c>
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292">
+        <v>195.8</v>
+      </c>
+      <c r="B292">
+        <v>3</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293">
+        <v>217.3</v>
+      </c>
+      <c r="B293">
+        <v>4</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294">
+        <v>265.8</v>
+      </c>
+      <c r="B294">
+        <v>5</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295">
+        <v>289.7</v>
+      </c>
+      <c r="B295">
+        <v>6</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296">
+        <v>282.8</v>
+      </c>
+      <c r="B296">
+        <v>7</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297">
+        <v>245.2</v>
+      </c>
+      <c r="B297">
+        <v>8</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298">
+        <v>146.4</v>
+      </c>
+      <c r="B298">
+        <v>9</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299">
+        <v>119.9</v>
+      </c>
+      <c r="B299">
+        <v>10</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300">
+        <v>122.3</v>
+      </c>
+      <c r="B300">
+        <v>11</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301">
+        <v>153.9</v>
+      </c>
+      <c r="B301">
+        <v>12</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302">
+        <v>253.7</v>
+      </c>
+      <c r="B302">
+        <v>13</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303">
+        <v>296.8</v>
+      </c>
+      <c r="B303">
+        <v>14</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304">
+        <v>317.8</v>
+      </c>
+      <c r="B304">
+        <v>15</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305">
+        <v>316.6</v>
+      </c>
+      <c r="B305">
+        <v>16</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306">
+        <v>297.2</v>
+      </c>
+      <c r="B306">
+        <v>17</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307">
+        <v>296.0</v>
+      </c>
+      <c r="B307">
+        <v>18</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308">
+        <v>291.1</v>
+      </c>
+      <c r="B308">
+        <v>19</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309">
+        <v>282.4</v>
+      </c>
+      <c r="B309">
+        <v>20</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310">
+        <v>265.1</v>
+      </c>
+      <c r="B310">
+        <v>21</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311">
+        <v>256.6</v>
+      </c>
+      <c r="B311">
+        <v>22</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312">
+        <v>253.0</v>
+      </c>
+      <c r="B312">
+        <v>23</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313">
+        <v>254.1</v>
+      </c>
+      <c r="B313">
+        <v>24</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314">
+        <v>259.1</v>
+      </c>
+      <c r="B314">
+        <v>25</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315">
+        <v>260.3</v>
+      </c>
+      <c r="B315">
+        <v>26</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316">
+        <v>262.3</v>
+      </c>
+      <c r="B316">
+        <v>27</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317">
+        <v>265.3</v>
+      </c>
+      <c r="B317">
+        <v>28</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318">
+        <v>261.4</v>
+      </c>
+      <c r="B318">
+        <v>29</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319">
+        <v>264.3</v>
+      </c>
+      <c r="B319">
+        <v>30</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320">
+        <v>275.3</v>
+      </c>
+      <c r="B320">
+        <v>31</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321">
+        <v>294.3</v>
+      </c>
+      <c r="B321">
+        <v>32</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322">
+        <v>344.9</v>
+      </c>
+      <c r="B322">
+        <v>33</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323">
+        <v>365.7</v>
+      </c>
+      <c r="B323">
+        <v>34</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324">
+        <v>362.5</v>
+      </c>
+      <c r="B324">
+        <v>35</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325">
+        <v>335.1</v>
+      </c>
+      <c r="B325">
+        <v>36</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326">
+        <v>265.7</v>
+      </c>
+      <c r="B326">
+        <v>37</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327">
+        <v>242.1</v>
+      </c>
+      <c r="B327">
+        <v>38</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328">
+        <v>237.6</v>
+      </c>
+      <c r="B328">
+        <v>39</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329">
+        <v>252.4</v>
+      </c>
+      <c r="B329">
+        <v>40</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330">
+        <v>306.6</v>
+      </c>
+      <c r="B330">
+        <v>41</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331">
+        <v>323.6</v>
+      </c>
+      <c r="B331">
+        <v>42</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332">
+        <v>322.1</v>
+      </c>
+      <c r="B332">
+        <v>43</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333">
+        <v>302.2</v>
+      </c>
+      <c r="B333">
+        <v>44</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334">
+        <v>257.0</v>
+      </c>
+      <c r="B334">
+        <v>45</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335">
+        <v>238.9</v>
+      </c>
+      <c r="B335">
+        <v>46</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336">
+        <v>229.3</v>
+      </c>
+      <c r="B336">
+        <v>47</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337">
+        <v>228.4</v>
+      </c>
+      <c r="B337">
+        <v>48</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338">
+        <v>231.7</v>
+      </c>
+      <c r="B338">
+        <v>49</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339">
+        <v>230.8</v>
+      </c>
+      <c r="B339">
+        <v>50</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340">
+        <v>233.9</v>
+      </c>
+      <c r="B340">
+        <v>51</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341">
+        <v>241.3</v>
+      </c>
+      <c r="B341">
+        <v>52</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342">
+        <v>249.9</v>
+      </c>
+      <c r="B342">
+        <v>53</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343">
+        <v>257.3</v>
+      </c>
+      <c r="B343">
+        <v>54</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344">
+        <v>268.0</v>
+      </c>
+      <c r="B344">
+        <v>55</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345">
+        <v>282.1</v>
+      </c>
+      <c r="B345">
+        <v>56</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346">
+        <v>318.0</v>
+      </c>
+      <c r="B346">
+        <v>57</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347">
+        <v>333.2</v>
+      </c>
+      <c r="B347">
+        <v>58</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348">
+        <v>328.9</v>
+      </c>
+      <c r="B348">
+        <v>59</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349">
+        <v>305.3</v>
+      </c>
+      <c r="B349">
+        <v>60</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350">
+        <v>256.5</v>
+      </c>
+      <c r="B350">
+        <v>61</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351">
+        <v>235.0</v>
+      </c>
+      <c r="B351">
+        <v>62</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352">
+        <v>221.5</v>
+      </c>
+      <c r="B352">
+        <v>63</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353">
+        <v>216.0</v>
+      </c>
+      <c r="B353">
+        <v>64</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354">
+        <v>213.5</v>
+      </c>
+      <c r="B354">
+        <v>65</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355">
+        <v>207.9</v>
+      </c>
+      <c r="B355">
+        <v>66</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356">
+        <v>206.5</v>
+      </c>
+      <c r="B356">
+        <v>67</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357">
+        <v>209.2</v>
+      </c>
+      <c r="B357">
+        <v>68</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358">
+        <v>202.1</v>
+      </c>
+      <c r="B358">
+        <v>69</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359">
+        <v>204.7</v>
+      </c>
+      <c r="B359">
+        <v>70</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360">
+        <v>221.9</v>
+      </c>
+      <c r="B360">
+        <v>71</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361">
+        <v>253.7</v>
+      </c>
+      <c r="B361">
+        <v>72</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362">
+        <v>328.7</v>
+      </c>
+      <c r="B362">
+        <v>73</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363">
+        <v>365.2</v>
+      </c>
+      <c r="B363">
+        <v>74</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364">
+        <v>374.9</v>
+      </c>
+      <c r="B364">
+        <v>75</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365">
+        <v>357.6</v>
+      </c>
+      <c r="B365">
+        <v>76</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366">
+        <v>304.8</v>
+      </c>
+      <c r="B366">
+        <v>77</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367">
+        <v>289.3</v>
+      </c>
+      <c r="B367">
+        <v>78</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368">
+        <v>284.5</v>
+      </c>
+      <c r="B368">
+        <v>79</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369">
+        <v>290.5</v>
+      </c>
+      <c r="B369">
+        <v>80</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370">
+        <v>321.6</v>
+      </c>
+      <c r="B370">
+        <v>81</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371">
+        <v>328.0</v>
+      </c>
+      <c r="B371">
+        <v>82</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372">
+        <v>320.2</v>
+      </c>
+      <c r="B372">
+        <v>83</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373">
+        <v>298.1</v>
+      </c>
+      <c r="B373">
+        <v>84</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374">
+        <v>217.1</v>
+      </c>
+      <c r="B374">
+        <v>85</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375">
+        <v>199.8</v>
+      </c>
+      <c r="B375">
+        <v>86</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376">
+        <v>223.8</v>
+      </c>
+      <c r="B376">
+        <v>87</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377">
+        <v>289.2</v>
+      </c>
+      <c r="B377">
+        <v>88</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378">
+        <v>499.9</v>
+      </c>
+      <c r="B378">
+        <v>89</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379">
+        <v>592.1</v>
+      </c>
+      <c r="B379">
+        <v>90</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380">
+        <v>596.7</v>
+      </c>
+      <c r="B380">
+        <v>91</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381">
+        <v>513.8</v>
+      </c>
+      <c r="B381">
+        <v>92</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382">
+        <v>371.7</v>
+      </c>
+      <c r="B382">
+        <v>93</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383">
+        <v>300.1</v>
+      </c>
+      <c r="B383">
+        <v>94</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384">
+        <v>228.5</v>
+      </c>
+      <c r="B384">
+        <v>95</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385">
+        <v>157.0</v>
+      </c>
+      <c r="B385">
+        <v>96</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386">
+        <v>111.3</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>2</v>
+      </c>
+      <c r="D386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387">
+        <v>127.9</v>
+      </c>
+      <c r="B387">
+        <v>2</v>
+      </c>
+      <c r="C387">
+        <v>2</v>
+      </c>
+      <c r="D387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388">
+        <v>144.5</v>
+      </c>
+      <c r="B388">
+        <v>3</v>
+      </c>
+      <c r="C388">
+        <v>2</v>
+      </c>
+      <c r="D388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389">
+        <v>161.2</v>
+      </c>
+      <c r="B389">
+        <v>4</v>
+      </c>
+      <c r="C389">
+        <v>2</v>
+      </c>
+      <c r="D389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390">
+        <v>174.9</v>
+      </c>
+      <c r="B390">
+        <v>5</v>
+      </c>
+      <c r="C390">
+        <v>2</v>
+      </c>
+      <c r="D390">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391">
+        <v>191.2</v>
+      </c>
+      <c r="B391">
+        <v>6</v>
+      </c>
+      <c r="C391">
+        <v>2</v>
+      </c>
+      <c r="D391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392">
+        <v>210.9</v>
+      </c>
+      <c r="B392">
+        <v>7</v>
+      </c>
+      <c r="C392">
+        <v>2</v>
+      </c>
+      <c r="D392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393">
+        <v>234.0</v>
+      </c>
+      <c r="B393">
+        <v>8</v>
+      </c>
+      <c r="C393">
+        <v>2</v>
+      </c>
+      <c r="D393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394">
+        <v>278.1</v>
+      </c>
+      <c r="B394">
+        <v>9</v>
+      </c>
+      <c r="C394">
+        <v>2</v>
+      </c>
+      <c r="D394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395">
+        <v>303.0</v>
+      </c>
+      <c r="B395">
+        <v>10</v>
+      </c>
+      <c r="C395">
+        <v>2</v>
+      </c>
+      <c r="D395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396">
+        <v>308.9</v>
+      </c>
+      <c r="B396">
+        <v>11</v>
+      </c>
+      <c r="C396">
+        <v>2</v>
+      </c>
+      <c r="D396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397">
+        <v>295.7</v>
+      </c>
+      <c r="B397">
+        <v>12</v>
+      </c>
+      <c r="C397">
+        <v>2</v>
+      </c>
+      <c r="D397">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398">
+        <v>264.4</v>
+      </c>
+      <c r="B398">
+        <v>13</v>
+      </c>
+      <c r="C398">
+        <v>2</v>
+      </c>
+      <c r="D398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399">
+        <v>252.1</v>
+      </c>
+      <c r="B399">
+        <v>14</v>
+      </c>
+      <c r="C399">
+        <v>2</v>
+      </c>
+      <c r="D399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400">
+        <v>240.7</v>
+      </c>
+      <c r="B400">
+        <v>15</v>
+      </c>
+      <c r="C400">
+        <v>2</v>
+      </c>
+      <c r="D400">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401">
+        <v>230.4</v>
+      </c>
+      <c r="B401">
+        <v>16</v>
+      </c>
+      <c r="C401">
+        <v>2</v>
+      </c>
+      <c r="D401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402">
+        <v>207.9</v>
+      </c>
+      <c r="B402">
+        <v>17</v>
+      </c>
+      <c r="C402">
+        <v>2</v>
+      </c>
+      <c r="D402">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403">
+        <v>198.2</v>
+      </c>
+      <c r="B403">
+        <v>18</v>
+      </c>
+      <c r="C403">
+        <v>2</v>
+      </c>
+      <c r="D403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404">
+        <v>200.7</v>
+      </c>
+      <c r="B404">
+        <v>19</v>
+      </c>
+      <c r="C404">
+        <v>2</v>
+      </c>
+      <c r="D404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405">
+        <v>215.3</v>
+      </c>
+      <c r="B405">
+        <v>20</v>
+      </c>
+      <c r="C405">
+        <v>2</v>
+      </c>
+      <c r="D405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406">
+        <v>253.9</v>
+      </c>
+      <c r="B406">
+        <v>21</v>
+      </c>
+      <c r="C406">
+        <v>2</v>
+      </c>
+      <c r="D406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407">
+        <v>270.1</v>
+      </c>
+      <c r="B407">
+        <v>22</v>
+      </c>
+      <c r="C407">
+        <v>2</v>
+      </c>
+      <c r="D407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408">
+        <v>276.0</v>
+      </c>
+      <c r="B408">
+        <v>23</v>
+      </c>
+      <c r="C408">
+        <v>2</v>
+      </c>
+      <c r="D408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409">
+        <v>271.5</v>
+      </c>
+      <c r="B409">
+        <v>24</v>
+      </c>
+      <c r="C409">
+        <v>2</v>
+      </c>
+      <c r="D409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410">
+        <v>242.8</v>
+      </c>
+      <c r="B410">
+        <v>25</v>
+      </c>
+      <c r="C410">
+        <v>2</v>
+      </c>
+      <c r="D410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411">
+        <v>238.8</v>
+      </c>
+      <c r="B411">
+        <v>26</v>
+      </c>
+      <c r="C411">
+        <v>2</v>
+      </c>
+      <c r="D411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412">
+        <v>248.6</v>
+      </c>
+      <c r="B412">
+        <v>27</v>
+      </c>
+      <c r="C412">
+        <v>2</v>
+      </c>
+      <c r="D412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413">
+        <v>272.4</v>
+      </c>
+      <c r="B413">
+        <v>28</v>
+      </c>
+      <c r="C413">
+        <v>2</v>
+      </c>
+      <c r="D413">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414">
+        <v>339.2</v>
+      </c>
+      <c r="B414">
+        <v>29</v>
+      </c>
+      <c r="C414">
+        <v>2</v>
+      </c>
+      <c r="D414">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415">
+        <v>366.4</v>
+      </c>
+      <c r="B415">
+        <v>30</v>
+      </c>
+      <c r="C415">
+        <v>2</v>
+      </c>
+      <c r="D415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416">
+        <v>365.1</v>
+      </c>
+      <c r="B416">
+        <v>31</v>
+      </c>
+      <c r="C416">
+        <v>2</v>
+      </c>
+      <c r="D416">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417">
+        <v>335.2</v>
+      </c>
+      <c r="B417">
+        <v>32</v>
+      </c>
+      <c r="C417">
+        <v>2</v>
+      </c>
+      <c r="D417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418">
+        <v>255.2</v>
+      </c>
+      <c r="B418">
+        <v>33</v>
+      </c>
+      <c r="C418">
+        <v>2</v>
+      </c>
+      <c r="D418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419">
+        <v>230.1</v>
+      </c>
+      <c r="B419">
+        <v>34</v>
+      </c>
+      <c r="C419">
+        <v>2</v>
+      </c>
+      <c r="D419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420">
+        <v>228.3</v>
+      </c>
+      <c r="B420">
+        <v>35</v>
+      </c>
+      <c r="C420">
+        <v>2</v>
+      </c>
+      <c r="D420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421">
+        <v>249.5</v>
+      </c>
+      <c r="B421">
+        <v>36</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+      <c r="D421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422">
+        <v>318.7</v>
+      </c>
+      <c r="B422">
+        <v>37</v>
+      </c>
+      <c r="C422">
+        <v>2</v>
+      </c>
+      <c r="D422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423">
+        <v>343.7</v>
+      </c>
+      <c r="B423">
+        <v>38</v>
+      </c>
+      <c r="C423">
+        <v>2</v>
+      </c>
+      <c r="D423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424">
+        <v>347.3</v>
+      </c>
+      <c r="B424">
+        <v>39</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+      <c r="D424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425">
+        <v>329.6</v>
+      </c>
+      <c r="B425">
+        <v>40</v>
+      </c>
+      <c r="C425">
+        <v>2</v>
+      </c>
+      <c r="D425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426">
+        <v>293.2</v>
+      </c>
+      <c r="B426">
+        <v>41</v>
+      </c>
+      <c r="C426">
+        <v>2</v>
+      </c>
+      <c r="D426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427">
+        <v>276.6</v>
+      </c>
+      <c r="B427">
+        <v>42</v>
+      </c>
+      <c r="C427">
+        <v>2</v>
+      </c>
+      <c r="D427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428">
+        <v>260.0</v>
+      </c>
+      <c r="B428">
+        <v>43</v>
+      </c>
+      <c r="C428">
+        <v>2</v>
+      </c>
+      <c r="D428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429">
+        <v>243.4</v>
+      </c>
+      <c r="B429">
+        <v>44</v>
+      </c>
+      <c r="C429">
+        <v>2</v>
+      </c>
+      <c r="D429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430">
+        <v>210.2</v>
+      </c>
+      <c r="B430">
+        <v>45</v>
+      </c>
+      <c r="C430">
+        <v>2</v>
+      </c>
+      <c r="D430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431">
+        <v>194.9</v>
+      </c>
+      <c r="B431">
+        <v>46</v>
+      </c>
+      <c r="C431">
+        <v>2</v>
+      </c>
+      <c r="D431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432">
+        <v>194.5</v>
+      </c>
+      <c r="B432">
+        <v>47</v>
+      </c>
+      <c r="C432">
+        <v>2</v>
+      </c>
+      <c r="D432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433">
+        <v>209.1</v>
+      </c>
+      <c r="B433">
+        <v>48</v>
+      </c>
+      <c r="C433">
+        <v>2</v>
+      </c>
+      <c r="D433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434">
+        <v>255.0</v>
+      </c>
+      <c r="B434">
+        <v>49</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
+      <c r="D434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435">
+        <v>271.7</v>
+      </c>
+      <c r="B435">
+        <v>50</v>
+      </c>
+      <c r="C435">
+        <v>2</v>
+      </c>
+      <c r="D435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436">
+        <v>273.4</v>
+      </c>
+      <c r="B436">
+        <v>51</v>
+      </c>
+      <c r="C436">
+        <v>2</v>
+      </c>
+      <c r="D436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437">
+        <v>260.4</v>
+      </c>
+      <c r="B437">
+        <v>52</v>
+      </c>
+      <c r="C437">
+        <v>2</v>
+      </c>
+      <c r="D437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438">
+        <v>213.9</v>
+      </c>
+      <c r="B438">
+        <v>53</v>
+      </c>
+      <c r="C438">
+        <v>2</v>
+      </c>
+      <c r="D438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439">
+        <v>202.6</v>
+      </c>
+      <c r="B439">
+        <v>54</v>
+      </c>
+      <c r="C439">
+        <v>2</v>
+      </c>
+      <c r="D439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440">
+        <v>210.0</v>
+      </c>
+      <c r="B440">
+        <v>55</v>
+      </c>
+      <c r="C440">
+        <v>2</v>
+      </c>
+      <c r="D440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441">
+        <v>236.1</v>
+      </c>
+      <c r="B441">
+        <v>56</v>
+      </c>
+      <c r="C441">
+        <v>2</v>
+      </c>
+      <c r="D441">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442">
+        <v>295.3</v>
+      </c>
+      <c r="B442">
+        <v>57</v>
+      </c>
+      <c r="C442">
+        <v>2</v>
+      </c>
+      <c r="D442">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443">
+        <v>324.7</v>
+      </c>
+      <c r="B443">
+        <v>58</v>
+      </c>
+      <c r="C443">
+        <v>2</v>
+      </c>
+      <c r="D443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444">
+        <v>344.8</v>
+      </c>
+      <c r="B444">
+        <v>59</v>
+      </c>
+      <c r="C444">
+        <v>2</v>
+      </c>
+      <c r="D444">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445">
+        <v>355.4</v>
+      </c>
+      <c r="B445">
+        <v>60</v>
+      </c>
+      <c r="C445">
+        <v>2</v>
+      </c>
+      <c r="D445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446">
+        <v>378.0</v>
+      </c>
+      <c r="B446">
+        <v>61</v>
+      </c>
+      <c r="C446">
+        <v>2</v>
+      </c>
+      <c r="D446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447">
+        <v>389.0</v>
+      </c>
+      <c r="B447">
+        <v>62</v>
+      </c>
+      <c r="C447">
+        <v>2</v>
+      </c>
+      <c r="D447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448">
+        <v>376.9</v>
+      </c>
+      <c r="B448">
+        <v>63</v>
+      </c>
+      <c r="C448">
+        <v>2</v>
+      </c>
+      <c r="D448">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449">
+        <v>341.9</v>
+      </c>
+      <c r="B449">
+        <v>64</v>
+      </c>
+      <c r="C449">
+        <v>2</v>
+      </c>
+      <c r="D449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450">
+        <v>272.0</v>
+      </c>
+      <c r="B450">
+        <v>65</v>
+      </c>
+      <c r="C450">
+        <v>2</v>
+      </c>
+      <c r="D450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451">
+        <v>241.0</v>
+      </c>
+      <c r="B451">
+        <v>66</v>
+      </c>
+      <c r="C451">
+        <v>2</v>
+      </c>
+      <c r="D451">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452">
+        <v>224.1</v>
+      </c>
+      <c r="B452">
+        <v>67</v>
+      </c>
+      <c r="C452">
+        <v>2</v>
+      </c>
+      <c r="D452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453">
+        <v>221.2</v>
+      </c>
+      <c r="B453">
+        <v>68</v>
+      </c>
+      <c r="C453">
+        <v>2</v>
+      </c>
+      <c r="D453">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454">
+        <v>234.4</v>
+      </c>
+      <c r="B454">
+        <v>69</v>
+      </c>
+      <c r="C454">
+        <v>2</v>
+      </c>
+      <c r="D454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455">
+        <v>231.3</v>
+      </c>
+      <c r="B455">
+        <v>70</v>
+      </c>
+      <c r="C455">
+        <v>2</v>
+      </c>
+      <c r="D455">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456">
+        <v>226.0</v>
+      </c>
+      <c r="B456">
+        <v>71</v>
+      </c>
+      <c r="C456">
+        <v>2</v>
+      </c>
+      <c r="D456">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457">
+        <v>218.4</v>
+      </c>
+      <c r="B457">
+        <v>72</v>
+      </c>
+      <c r="C457">
+        <v>2</v>
+      </c>
+      <c r="D457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458">
+        <v>192.7</v>
+      </c>
+      <c r="B458">
+        <v>73</v>
+      </c>
+      <c r="C458">
+        <v>2</v>
+      </c>
+      <c r="D458">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459">
+        <v>185.7</v>
+      </c>
+      <c r="B459">
+        <v>74</v>
+      </c>
+      <c r="C459">
+        <v>2</v>
+      </c>
+      <c r="D459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460">
+        <v>193.9</v>
+      </c>
+      <c r="B460">
+        <v>75</v>
+      </c>
+      <c r="C460">
+        <v>2</v>
+      </c>
+      <c r="D460">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461">
+        <v>217.3</v>
+      </c>
+      <c r="B461">
+        <v>76</v>
+      </c>
+      <c r="C461">
+        <v>2</v>
+      </c>
+      <c r="D461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462">
+        <v>278.4</v>
+      </c>
+      <c r="B462">
+        <v>77</v>
+      </c>
+      <c r="C462">
+        <v>2</v>
+      </c>
+      <c r="D462">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463">
+        <v>305.5</v>
+      </c>
+      <c r="B463">
+        <v>78</v>
+      </c>
+      <c r="C463">
+        <v>2</v>
+      </c>
+      <c r="D463">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464">
+        <v>312.1</v>
+      </c>
+      <c r="B464">
+        <v>79</v>
+      </c>
+      <c r="C464">
+        <v>2</v>
+      </c>
+      <c r="D464">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465">
+        <v>298.3</v>
+      </c>
+      <c r="B465">
+        <v>80</v>
+      </c>
+      <c r="C465">
+        <v>2</v>
+      </c>
+      <c r="D465">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466">
+        <v>244.7</v>
+      </c>
+      <c r="B466">
+        <v>81</v>
+      </c>
+      <c r="C466">
+        <v>2</v>
+      </c>
+      <c r="D466">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467">
+        <v>232.9</v>
+      </c>
+      <c r="B467">
+        <v>82</v>
+      </c>
+      <c r="C467">
+        <v>2</v>
+      </c>
+      <c r="D467">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468">
+        <v>241.2</v>
+      </c>
+      <c r="B468">
+        <v>83</v>
+      </c>
+      <c r="C468">
+        <v>2</v>
+      </c>
+      <c r="D468">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469">
+        <v>269.7</v>
+      </c>
+      <c r="B469">
+        <v>84</v>
+      </c>
+      <c r="C469">
+        <v>2</v>
+      </c>
+      <c r="D469">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470">
+        <v>343.3</v>
+      </c>
+      <c r="B470">
+        <v>85</v>
+      </c>
+      <c r="C470">
+        <v>2</v>
+      </c>
+      <c r="D470">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471">
+        <v>376.1</v>
+      </c>
+      <c r="B471">
+        <v>86</v>
+      </c>
+      <c r="C471">
+        <v>2</v>
+      </c>
+      <c r="D471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472">
+        <v>387.7</v>
+      </c>
+      <c r="B472">
+        <v>87</v>
+      </c>
+      <c r="C472">
+        <v>2</v>
+      </c>
+      <c r="D472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473">
+        <v>378.0</v>
+      </c>
+      <c r="B473">
+        <v>88</v>
+      </c>
+      <c r="C473">
+        <v>2</v>
+      </c>
+      <c r="D473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474">
+        <v>368.5</v>
+      </c>
+      <c r="B474">
+        <v>89</v>
+      </c>
+      <c r="C474">
+        <v>2</v>
+      </c>
+      <c r="D474">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475">
+        <v>358.8</v>
+      </c>
+      <c r="B475">
+        <v>90</v>
+      </c>
+      <c r="C475">
+        <v>2</v>
+      </c>
+      <c r="D475">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476">
+        <v>329.8</v>
+      </c>
+      <c r="B476">
+        <v>91</v>
+      </c>
+      <c r="C476">
+        <v>2</v>
+      </c>
+      <c r="D476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477">
+        <v>281.3</v>
+      </c>
+      <c r="B477">
+        <v>92</v>
+      </c>
+      <c r="C477">
+        <v>2</v>
+      </c>
+      <c r="D477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478">
+        <v>220.2</v>
+      </c>
+      <c r="B478">
+        <v>93</v>
+      </c>
+      <c r="C478">
+        <v>2</v>
+      </c>
+      <c r="D478">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479">
+        <v>174.4</v>
+      </c>
+      <c r="B479">
+        <v>94</v>
+      </c>
+      <c r="C479">
+        <v>2</v>
+      </c>
+      <c r="D479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480">
+        <v>128.6</v>
+      </c>
+      <c r="B480">
+        <v>95</v>
+      </c>
+      <c r="C480">
+        <v>2</v>
+      </c>
+      <c r="D480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481">
+        <v>82.8</v>
+      </c>
+      <c r="B481">
+        <v>96</v>
+      </c>
+      <c r="C481">
+        <v>2</v>
+      </c>
+      <c r="D481">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482">
+        <v>136.4</v>
+      </c>
+      <c r="B482">
+        <v>1</v>
+      </c>
+      <c r="C482">
+        <v>3</v>
+      </c>
+      <c r="D482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483">
+        <v>167.6</v>
+      </c>
+      <c r="B483">
+        <v>2</v>
+      </c>
+      <c r="C483">
+        <v>3</v>
+      </c>
+      <c r="D483">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484">
+        <v>198.7</v>
+      </c>
+      <c r="B484">
+        <v>3</v>
+      </c>
+      <c r="C484">
+        <v>3</v>
+      </c>
+      <c r="D484">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485">
+        <v>229.9</v>
+      </c>
+      <c r="B485">
+        <v>4</v>
+      </c>
+      <c r="C485">
+        <v>3</v>
+      </c>
+      <c r="D485">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486">
+        <v>288.1</v>
+      </c>
+      <c r="B486">
+        <v>5</v>
+      </c>
+      <c r="C486">
+        <v>3</v>
+      </c>
+      <c r="D486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487">
+        <v>322.5</v>
+      </c>
+      <c r="B487">
+        <v>6</v>
+      </c>
+      <c r="C487">
+        <v>3</v>
+      </c>
+      <c r="D487">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488">
+        <v>325.1</v>
+      </c>
+      <c r="B488">
+        <v>7</v>
+      </c>
+      <c r="C488">
+        <v>3</v>
+      </c>
+      <c r="D488">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489">
+        <v>295.8</v>
+      </c>
+      <c r="B489">
+        <v>8</v>
+      </c>
+      <c r="C489">
+        <v>3</v>
+      </c>
+      <c r="D489">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490">
+        <v>213.2</v>
+      </c>
+      <c r="B490">
+        <v>9</v>
+      </c>
+      <c r="C490">
+        <v>3</v>
+      </c>
+      <c r="D490">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491">
+        <v>189.8</v>
+      </c>
+      <c r="B491">
+        <v>10</v>
+      </c>
+      <c r="C491">
+        <v>3</v>
+      </c>
+      <c r="D491">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492">
+        <v>190.1</v>
+      </c>
+      <c r="B492">
+        <v>11</v>
+      </c>
+      <c r="C492">
+        <v>3</v>
+      </c>
+      <c r="D492">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493">
+        <v>214.0</v>
+      </c>
+      <c r="B493">
+        <v>12</v>
+      </c>
+      <c r="C493">
+        <v>3</v>
+      </c>
+      <c r="D493">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494">
+        <v>285.6</v>
+      </c>
+      <c r="B494">
+        <v>13</v>
+      </c>
+      <c r="C494">
+        <v>3</v>
+      </c>
+      <c r="D494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495">
+        <v>314.4</v>
+      </c>
+      <c r="B495">
+        <v>14</v>
+      </c>
+      <c r="C495">
+        <v>3</v>
+      </c>
+      <c r="D495">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496">
+        <v>324.6</v>
+      </c>
+      <c r="B496">
+        <v>15</v>
+      </c>
+      <c r="C496">
+        <v>3</v>
+      </c>
+      <c r="D496">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497">
+        <v>316.5</v>
+      </c>
+      <c r="B497">
+        <v>16</v>
+      </c>
+      <c r="C497">
+        <v>3</v>
+      </c>
+      <c r="D497">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498">
+        <v>281.0</v>
+      </c>
+      <c r="B498">
+        <v>17</v>
+      </c>
+      <c r="C498">
+        <v>3</v>
+      </c>
+      <c r="D498">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499">
+        <v>273.5</v>
+      </c>
+      <c r="B499">
+        <v>18</v>
+      </c>
+      <c r="C499">
+        <v>3</v>
+      </c>
+      <c r="D499">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500">
+        <v>275.6</v>
+      </c>
+      <c r="B500">
+        <v>19</v>
+      </c>
+      <c r="C500">
+        <v>3</v>
+      </c>
+      <c r="D500">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501">
+        <v>287.4</v>
+      </c>
+      <c r="B501">
+        <v>20</v>
+      </c>
+      <c r="C501">
+        <v>3</v>
+      </c>
+      <c r="D501">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502">
+        <v>307.7</v>
+      </c>
+      <c r="B502">
+        <v>21</v>
+      </c>
+      <c r="C502">
+        <v>3</v>
+      </c>
+      <c r="D502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503">
+        <v>319.8</v>
+      </c>
+      <c r="B503">
+        <v>22</v>
+      </c>
+      <c r="C503">
+        <v>3</v>
+      </c>
+      <c r="D503">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504">
+        <v>334.1</v>
+      </c>
+      <c r="B504">
+        <v>23</v>
+      </c>
+      <c r="C504">
+        <v>3</v>
+      </c>
+      <c r="D504">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505">
+        <v>350.7</v>
+      </c>
+      <c r="B505">
+        <v>24</v>
+      </c>
+      <c r="C505">
+        <v>3</v>
+      </c>
+      <c r="D505">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506">
+        <v>393.1</v>
+      </c>
+      <c r="B506">
+        <v>25</v>
+      </c>
+      <c r="C506">
+        <v>3</v>
+      </c>
+      <c r="D506">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507">
+        <v>410.8</v>
+      </c>
+      <c r="B507">
+        <v>26</v>
+      </c>
+      <c r="C507">
+        <v>3</v>
+      </c>
+      <c r="D507">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508">
+        <v>403.5</v>
+      </c>
+      <c r="B508">
+        <v>27</v>
+      </c>
+      <c r="C508">
+        <v>3</v>
+      </c>
+      <c r="D508">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509">
+        <v>371.1</v>
+      </c>
+      <c r="B509">
+        <v>28</v>
+      </c>
+      <c r="C509">
+        <v>3</v>
+      </c>
+      <c r="D509">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510">
+        <v>322.5</v>
+      </c>
+      <c r="B510">
+        <v>29</v>
+      </c>
+      <c r="C510">
+        <v>3</v>
+      </c>
+      <c r="D510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511">
+        <v>291.8</v>
+      </c>
+      <c r="B511">
+        <v>30</v>
+      </c>
+      <c r="C511">
+        <v>3</v>
+      </c>
+      <c r="D511">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512">
+        <v>257.7</v>
+      </c>
+      <c r="B512">
+        <v>31</v>
+      </c>
+      <c r="C512">
+        <v>3</v>
+      </c>
+      <c r="D512">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513">
+        <v>220.2</v>
+      </c>
+      <c r="B513">
+        <v>32</v>
+      </c>
+      <c r="C513">
+        <v>3</v>
+      </c>
+      <c r="D513">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514">
+        <v>133.7</v>
+      </c>
+      <c r="B514">
+        <v>33</v>
+      </c>
+      <c r="C514">
+        <v>3</v>
+      </c>
+      <c r="D514">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515">
+        <v>106.3</v>
+      </c>
+      <c r="B515">
+        <v>34</v>
+      </c>
+      <c r="C515">
+        <v>3</v>
+      </c>
+      <c r="D515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516">
+        <v>111.2</v>
+      </c>
+      <c r="B516">
+        <v>35</v>
+      </c>
+      <c r="C516">
+        <v>3</v>
+      </c>
+      <c r="D516">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517">
+        <v>148.5</v>
+      </c>
+      <c r="B517">
+        <v>36</v>
+      </c>
+      <c r="C517">
+        <v>3</v>
+      </c>
+      <c r="D517">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518">
+        <v>271.8</v>
+      </c>
+      <c r="B518">
+        <v>37</v>
+      </c>
+      <c r="C518">
+        <v>3</v>
+      </c>
+      <c r="D518">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519">
+        <v>326.3</v>
+      </c>
+      <c r="B519">
+        <v>38</v>
+      </c>
+      <c r="C519">
+        <v>3</v>
+      </c>
+      <c r="D519">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520">
+        <v>353.6</v>
+      </c>
+      <c r="B520">
+        <v>39</v>
+      </c>
+      <c r="C520">
+        <v>3</v>
+      </c>
+      <c r="D520">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521">
+        <v>353.5</v>
+      </c>
+      <c r="B521">
+        <v>40</v>
+      </c>
+      <c r="C521">
+        <v>3</v>
+      </c>
+      <c r="D521">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522">
+        <v>332.7</v>
+      </c>
+      <c r="B522">
+        <v>41</v>
+      </c>
+      <c r="C522">
+        <v>3</v>
+      </c>
+      <c r="D522">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523">
+        <v>332.6</v>
+      </c>
+      <c r="B523">
+        <v>42</v>
+      </c>
+      <c r="C523">
+        <v>3</v>
+      </c>
+      <c r="D523">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524">
+        <v>326.1</v>
+      </c>
+      <c r="B524">
+        <v>43</v>
+      </c>
+      <c r="C524">
+        <v>3</v>
+      </c>
+      <c r="D524">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525">
+        <v>313.0</v>
+      </c>
+      <c r="B525">
+        <v>44</v>
+      </c>
+      <c r="C525">
+        <v>3</v>
+      </c>
+      <c r="D525">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526">
+        <v>281.8</v>
+      </c>
+      <c r="B526">
+        <v>45</v>
+      </c>
+      <c r="C526">
+        <v>3</v>
+      </c>
+      <c r="D526">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527">
+        <v>269.6</v>
+      </c>
+      <c r="B527">
+        <v>46</v>
+      </c>
+      <c r="C527">
+        <v>3</v>
+      </c>
+      <c r="D527">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528">
+        <v>268.7</v>
+      </c>
+      <c r="B528">
+        <v>47</v>
+      </c>
+      <c r="C528">
+        <v>3</v>
+      </c>
+      <c r="D528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529">
+        <v>279.2</v>
+      </c>
+      <c r="B529">
+        <v>48</v>
+      </c>
+      <c r="C529">
+        <v>3</v>
+      </c>
+      <c r="D529">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530">
+        <v>318.2</v>
+      </c>
+      <c r="B530">
+        <v>49</v>
+      </c>
+      <c r="C530">
+        <v>3</v>
+      </c>
+      <c r="D530">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531">
+        <v>329.7</v>
+      </c>
+      <c r="B531">
+        <v>50</v>
+      </c>
+      <c r="C531">
+        <v>3</v>
+      </c>
+      <c r="D531">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532">
+        <v>324.6</v>
+      </c>
+      <c r="B532">
+        <v>51</v>
+      </c>
+      <c r="C532">
+        <v>3</v>
+      </c>
+      <c r="D532">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533">
+        <v>302.6</v>
+      </c>
+      <c r="B533">
+        <v>52</v>
+      </c>
+      <c r="C533">
+        <v>3</v>
+      </c>
+      <c r="D533">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534">
+        <v>255.9</v>
+      </c>
+      <c r="B534">
+        <v>53</v>
+      </c>
+      <c r="C534">
+        <v>3</v>
+      </c>
+      <c r="D534">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535">
+        <v>235.9</v>
+      </c>
+      <c r="B535">
+        <v>54</v>
+      </c>
+      <c r="C535">
+        <v>3</v>
+      </c>
+      <c r="D535">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536">
+        <v>225.4</v>
+      </c>
+      <c r="B536">
+        <v>55</v>
+      </c>
+      <c r="C536">
+        <v>3</v>
+      </c>
+      <c r="D536">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537">
+        <v>224.5</v>
+      </c>
+      <c r="B537">
+        <v>56</v>
+      </c>
+      <c r="C537">
+        <v>3</v>
+      </c>
+      <c r="D537">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538">
+        <v>227.2</v>
+      </c>
+      <c r="B538">
+        <v>57</v>
+      </c>
+      <c r="C538">
+        <v>3</v>
+      </c>
+      <c r="D538">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539">
+        <v>226.3</v>
+      </c>
+      <c r="B539">
+        <v>58</v>
+      </c>
+      <c r="C539">
+        <v>3</v>
+      </c>
+      <c r="D539">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540">
+        <v>231.2</v>
+      </c>
+      <c r="B540">
+        <v>59</v>
+      </c>
+      <c r="C540">
+        <v>3</v>
+      </c>
+      <c r="D540">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541">
+        <v>242.0</v>
+      </c>
+      <c r="B541">
+        <v>60</v>
+      </c>
+      <c r="C541">
+        <v>3</v>
+      </c>
+      <c r="D541">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542">
+        <v>247.8</v>
+      </c>
+      <c r="B542">
+        <v>61</v>
+      </c>
+      <c r="C542">
+        <v>3</v>
+      </c>
+      <c r="D542">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543">
+        <v>258.4</v>
+      </c>
+      <c r="B543">
+        <v>62</v>
+      </c>
+      <c r="C543">
+        <v>3</v>
+      </c>
+      <c r="D543">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544">
+        <v>281.3</v>
+      </c>
+      <c r="B544">
+        <v>63</v>
+      </c>
+      <c r="C544">
+        <v>3</v>
+      </c>
+      <c r="D544">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545">
+        <v>316.6</v>
+      </c>
+      <c r="B545">
+        <v>64</v>
+      </c>
+      <c r="C545">
+        <v>3</v>
+      </c>
+      <c r="D545">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546">
+        <v>380.1</v>
+      </c>
+      <c r="B546">
+        <v>65</v>
+      </c>
+      <c r="C546">
+        <v>3</v>
+      </c>
+      <c r="D546">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547">
+        <v>418.2</v>
+      </c>
+      <c r="B547">
+        <v>66</v>
+      </c>
+      <c r="C547">
+        <v>3</v>
+      </c>
+      <c r="D547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548">
+        <v>442.8</v>
+      </c>
+      <c r="B548">
+        <v>67</v>
+      </c>
+      <c r="C548">
+        <v>3</v>
+      </c>
+      <c r="D548">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549">
+        <v>453.9</v>
+      </c>
+      <c r="B549">
+        <v>68</v>
+      </c>
+      <c r="C549">
+        <v>3</v>
+      </c>
+      <c r="D549">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550">
+        <v>493.7</v>
+      </c>
+      <c r="B550">
+        <v>69</v>
+      </c>
+      <c r="C550">
+        <v>3</v>
+      </c>
+      <c r="D550">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551">
+        <v>505.5</v>
+      </c>
+      <c r="B551">
+        <v>70</v>
+      </c>
+      <c r="C551">
+        <v>3</v>
+      </c>
+      <c r="D551">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552">
+        <v>472.8</v>
+      </c>
+      <c r="B552">
+        <v>71</v>
+      </c>
+      <c r="C552">
+        <v>3</v>
+      </c>
+      <c r="D552">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553">
+        <v>395.6</v>
+      </c>
+      <c r="B553">
+        <v>72</v>
+      </c>
+      <c r="C553">
+        <v>3</v>
+      </c>
+      <c r="D553">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554">
+        <v>234.3</v>
+      </c>
+      <c r="B554">
+        <v>73</v>
+      </c>
+      <c r="C554">
+        <v>3</v>
+      </c>
+      <c r="D554">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555">
+        <v>177.5</v>
+      </c>
+      <c r="B555">
+        <v>74</v>
+      </c>
+      <c r="C555">
+        <v>3</v>
+      </c>
+      <c r="D555">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556">
+        <v>156.5</v>
+      </c>
+      <c r="B556">
+        <v>75</v>
+      </c>
+      <c r="C556">
+        <v>3</v>
+      </c>
+      <c r="D556">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557">
+        <v>171.5</v>
+      </c>
+      <c r="B557">
+        <v>76</v>
+      </c>
+      <c r="C557">
+        <v>3</v>
+      </c>
+      <c r="D557">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558">
+        <v>229.0</v>
+      </c>
+      <c r="B558">
+        <v>77</v>
+      </c>
+      <c r="C558">
+        <v>3</v>
+      </c>
+      <c r="D558">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559">
+        <v>247.4</v>
+      </c>
+      <c r="B559">
+        <v>78</v>
+      </c>
+      <c r="C559">
+        <v>3</v>
+      </c>
+      <c r="D559">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560">
+        <v>268.4</v>
+      </c>
+      <c r="B560">
+        <v>79</v>
+      </c>
+      <c r="C560">
+        <v>3</v>
+      </c>
+      <c r="D560">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561">
+        <v>291.9</v>
+      </c>
+      <c r="B561">
+        <v>80</v>
+      </c>
+      <c r="C561">
+        <v>3</v>
+      </c>
+      <c r="D561">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562">
+        <v>335.3</v>
+      </c>
+      <c r="B562">
+        <v>81</v>
+      </c>
+      <c r="C562">
+        <v>3</v>
+      </c>
+      <c r="D562">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563">
+        <v>360.3</v>
+      </c>
+      <c r="B563">
+        <v>82</v>
+      </c>
+      <c r="C563">
+        <v>3</v>
+      </c>
+      <c r="D563">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564">
+        <v>366.9</v>
+      </c>
+      <c r="B564">
+        <v>83</v>
+      </c>
+      <c r="C564">
+        <v>3</v>
+      </c>
+      <c r="D564">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565">
+        <v>355.2</v>
+      </c>
+      <c r="B565">
+        <v>84</v>
+      </c>
+      <c r="C565">
+        <v>3</v>
+      </c>
+      <c r="D565">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566">
+        <v>336.7</v>
+      </c>
+      <c r="B566">
+        <v>85</v>
+      </c>
+      <c r="C566">
+        <v>3</v>
+      </c>
+      <c r="D566">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567">
+        <v>325.2</v>
+      </c>
+      <c r="B567">
+        <v>86</v>
+      </c>
+      <c r="C567">
+        <v>3</v>
+      </c>
+      <c r="D567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568">
+        <v>303.9</v>
+      </c>
+      <c r="B568">
+        <v>87</v>
+      </c>
+      <c r="C568">
+        <v>3</v>
+      </c>
+      <c r="D568">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569">
+        <v>272.9</v>
+      </c>
+      <c r="B569">
+        <v>88</v>
+      </c>
+      <c r="C569">
+        <v>3</v>
+      </c>
+      <c r="D569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570">
+        <v>221.7</v>
+      </c>
+      <c r="B570">
+        <v>89</v>
+      </c>
+      <c r="C570">
+        <v>3</v>
+      </c>
+      <c r="D570">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571">
+        <v>193.3</v>
+      </c>
+      <c r="B571">
+        <v>90</v>
+      </c>
+      <c r="C571">
+        <v>3</v>
+      </c>
+      <c r="D571">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572">
+        <v>175.3</v>
+      </c>
+      <c r="B572">
+        <v>91</v>
+      </c>
+      <c r="C572">
+        <v>3</v>
+      </c>
+      <c r="D572">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573">
+        <v>167.6</v>
+      </c>
+      <c r="B573">
+        <v>92</v>
+      </c>
+      <c r="C573">
+        <v>3</v>
+      </c>
+      <c r="D573">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574">
+        <v>169.2</v>
+      </c>
+      <c r="B574">
+        <v>93</v>
+      </c>
+      <c r="C574">
+        <v>3</v>
+      </c>
+      <c r="D574">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575">
+        <v>161.1</v>
+      </c>
+      <c r="B575">
+        <v>94</v>
+      </c>
+      <c r="C575">
+        <v>3</v>
+      </c>
+      <c r="D575">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576">
+        <v>153.0</v>
+      </c>
+      <c r="B576">
+        <v>95</v>
+      </c>
+      <c r="C576">
+        <v>3</v>
+      </c>
+      <c r="D576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577">
+        <v>144.8</v>
+      </c>
+      <c r="B577">
+        <v>96</v>
+      </c>
+      <c r="C577">
+        <v>3</v>
+      </c>
+      <c r="D577">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
